--- a/raw_data/20200818_saline/20200818_Sensor0_Test_61.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_61.xlsx
@@ -1,538 +1,954 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DADAD7-CC3D-4A98-AB85-C76C0C9116FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>54002.894276</v>
+        <v>54002.894275999999</v>
       </c>
       <c r="B2" s="1">
         <v>15.000804</v>
       </c>
       <c r="C2" s="1">
-        <v>904.152000</v>
+        <v>904.15200000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>-192.595000</v>
+        <v>-192.595</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>54012.950177</v>
+        <v>54012.950176999999</v>
       </c>
       <c r="G2" s="1">
-        <v>15.003597</v>
+        <v>15.003596999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>921.034000</v>
+        <v>921.03399999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-164.010000</v>
+        <v>-164.01</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>54023.036286</v>
+        <v>54023.036286000002</v>
       </c>
       <c r="L2" s="1">
         <v>15.006399</v>
       </c>
       <c r="M2" s="1">
-        <v>942.156000</v>
+        <v>942.15599999999995</v>
       </c>
       <c r="N2" s="1">
-        <v>-117.819000</v>
+        <v>-117.819</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>54033.170544</v>
+        <v>54033.170544000001</v>
       </c>
       <c r="Q2" s="1">
         <v>15.009214</v>
       </c>
       <c r="R2" s="1">
-        <v>948.933000</v>
+        <v>948.93299999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.931000</v>
+        <v>-102.931</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>54043.751204</v>
@@ -541,405 +957,405 @@
         <v>15.012153</v>
       </c>
       <c r="W2" s="1">
-        <v>955.451000</v>
+        <v>955.45100000000002</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.551300</v>
+        <v>-89.551299999999998</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>54054.201941</v>
+        <v>54054.201940999999</v>
       </c>
       <c r="AA2" s="1">
         <v>15.015056</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.799000</v>
+        <v>962.79899999999998</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.323000</v>
+        <v>-80.322999999999993</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>54064.834647</v>
+        <v>54064.834647000003</v>
       </c>
       <c r="AF2" s="1">
-        <v>15.018010</v>
+        <v>15.01801</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.749000</v>
+        <v>967.74900000000002</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.067600</v>
+        <v>-80.067599999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>54075.310153</v>
+        <v>54075.310152999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>15.020919</v>
+        <v>15.020918999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>975.727000</v>
+        <v>975.72699999999998</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.990600</v>
+        <v>-87.990600000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>54085.866507</v>
+        <v>54085.866506999999</v>
       </c>
       <c r="AP2" s="1">
         <v>15.023852</v>
       </c>
       <c r="AQ2" s="1">
-        <v>985.035000</v>
+        <v>985.03499999999997</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.139000</v>
+        <v>-103.139</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>54096.883150</v>
+        <v>54096.883150000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>15.026912</v>
+        <v>15.026911999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.543000</v>
+        <v>996.54300000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.887000</v>
+        <v>-124.887</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>54107.630958</v>
+        <v>54107.630958000002</v>
       </c>
       <c r="AZ2" s="1">
         <v>15.029897</v>
       </c>
       <c r="BA2" s="1">
-        <v>1006.290000</v>
+        <v>1006.29</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.778000</v>
+        <v>-143.77799999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>54118.536496</v>
+        <v>54118.536496000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>15.032927</v>
+        <v>15.032927000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1052.180000</v>
+        <v>1052.18</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.068000</v>
+        <v>-229.06800000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>54129.567027</v>
+        <v>54129.567026999997</v>
       </c>
       <c r="BJ2" s="1">
-        <v>15.035991</v>
+        <v>15.035990999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1132.590000</v>
+        <v>1132.5899999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-365.327000</v>
+        <v>-365.327</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>54139.980565</v>
+        <v>54139.980564999998</v>
       </c>
       <c r="BO2" s="1">
         <v>15.038883</v>
       </c>
       <c r="BP2" s="1">
-        <v>1265.040000</v>
+        <v>1265.04</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-575.196000</v>
+        <v>-575.19600000000003</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>54150.743222</v>
+        <v>54150.743221999997</v>
       </c>
       <c r="BT2" s="1">
-        <v>15.041873</v>
+        <v>15.041873000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1413.520000</v>
+        <v>1413.52</v>
       </c>
       <c r="BV2" s="1">
-        <v>-799.011000</v>
+        <v>-799.01099999999997</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>54161.423576</v>
+        <v>54161.423576000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>15.044840</v>
+        <v>15.044840000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1575.400000</v>
+        <v>1575.4</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1032.690000</v>
+        <v>-1032.69</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>54172.607864</v>
+        <v>54172.607863999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>15.047947</v>
+        <v>15.047947000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1984.030000</v>
+        <v>1984.03</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1577.240000</v>
+        <v>-1577.24</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>54003.255832</v>
+        <v>54003.255832000003</v>
       </c>
       <c r="B3" s="1">
         <v>15.000904</v>
       </c>
       <c r="C3" s="1">
-        <v>904.159000</v>
+        <v>904.15899999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-192.585000</v>
+        <v>-192.58500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>54013.293903</v>
+        <v>54013.293902999998</v>
       </c>
       <c r="G3" s="1">
         <v>15.003693</v>
       </c>
       <c r="H3" s="1">
-        <v>920.387000</v>
+        <v>920.38699999999994</v>
       </c>
       <c r="I3" s="1">
-        <v>-163.908000</v>
+        <v>-163.90799999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>54023.468303</v>
+        <v>54023.468303000001</v>
       </c>
       <c r="L3" s="1">
-        <v>15.006519</v>
+        <v>15.006519000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>942.277000</v>
+        <v>942.27700000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-117.849000</v>
+        <v>-117.849</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>54033.585233</v>
+        <v>54033.585232999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>15.009329</v>
+        <v>15.009328999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>948.917000</v>
+        <v>948.91700000000003</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.912000</v>
+        <v>-102.91200000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>54044.154947</v>
+        <v>54044.154947000003</v>
       </c>
       <c r="V3" s="1">
-        <v>15.012265</v>
+        <v>15.012264999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>955.259000</v>
+        <v>955.25900000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.580500</v>
+        <v>-89.580500000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>54054.624996</v>
+        <v>54054.624995999999</v>
       </c>
       <c r="AA3" s="1">
         <v>15.015174</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.704000</v>
+        <v>962.70399999999995</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.273500</v>
+        <v>-80.273499999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>54065.205158</v>
+        <v>54065.205157999997</v>
       </c>
       <c r="AF3" s="1">
         <v>15.018113</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.780000</v>
+        <v>967.78</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.003800</v>
+        <v>-80.003799999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>54075.663833</v>
+        <v>54075.663832999999</v>
       </c>
       <c r="AK3" s="1">
         <v>15.021018</v>
       </c>
       <c r="AL3" s="1">
-        <v>975.781000</v>
+        <v>975.78099999999995</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.996800</v>
+        <v>-87.996799999999993</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>54086.266284</v>
+        <v>54086.266283999998</v>
       </c>
       <c r="AP3" s="1">
         <v>15.023963</v>
       </c>
       <c r="AQ3" s="1">
-        <v>985.030000</v>
+        <v>985.03</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.144000</v>
+        <v>-103.14400000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>54097.296844</v>
+        <v>54097.296843999997</v>
       </c>
       <c r="AU3" s="1">
         <v>15.027027</v>
       </c>
       <c r="AV3" s="1">
-        <v>996.551000</v>
+        <v>996.55100000000004</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.878000</v>
+        <v>-124.878</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>54108.376446</v>
+        <v>54108.376446000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>15.030105</v>
+        <v>15.030105000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1006.280000</v>
+        <v>1006.28</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.788000</v>
+        <v>-143.78800000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>54118.929327</v>
+        <v>54118.929326999998</v>
       </c>
       <c r="BE3" s="1">
-        <v>15.033036</v>
+        <v>15.033035999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1052.170000</v>
+        <v>1052.17</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.106000</v>
+        <v>-229.10599999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>54129.966833</v>
+        <v>54129.966832999999</v>
       </c>
       <c r="BJ3" s="1">
         <v>15.036102</v>
       </c>
       <c r="BK3" s="1">
-        <v>1132.570000</v>
+        <v>1132.57</v>
       </c>
       <c r="BL3" s="1">
-        <v>-365.344000</v>
+        <v>-365.34399999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>54140.406104</v>
+        <v>54140.406104000002</v>
       </c>
       <c r="BO3" s="1">
         <v>15.039002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1265.020000</v>
+        <v>1265.02</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-575.196000</v>
+        <v>-575.19600000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>54151.491188</v>
@@ -948,664 +1364,664 @@
         <v>15.042081</v>
       </c>
       <c r="BU3" s="1">
-        <v>1413.490000</v>
+        <v>1413.49</v>
       </c>
       <c r="BV3" s="1">
-        <v>-799.043000</v>
+        <v>-799.04300000000001</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>54162.039110</v>
+        <v>54162.039109999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>15.045011</v>
+        <v>15.045011000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1575.640000</v>
+        <v>1575.64</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1032.650000</v>
+        <v>-1032.6500000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>54172.940185</v>
+        <v>54172.940184999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>15.048039</v>
+        <v>15.048038999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1983.920000</v>
+        <v>1983.92</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1577.090000</v>
+        <v>-1577.09</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>54003.596615</v>
+        <v>54003.596615000002</v>
       </c>
       <c r="B4" s="1">
         <v>15.000999</v>
       </c>
       <c r="C4" s="1">
-        <v>904.358000</v>
+        <v>904.35799999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>-192.685000</v>
+        <v>-192.685</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>54013.708524</v>
+        <v>54013.708524000001</v>
       </c>
       <c r="G4" s="1">
-        <v>15.003808</v>
+        <v>15.003807999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>920.472000</v>
+        <v>920.47199999999998</v>
       </c>
       <c r="I4" s="1">
-        <v>-163.490000</v>
+        <v>-163.49</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>54023.727213</v>
+        <v>54023.727212999998</v>
       </c>
       <c r="L4" s="1">
         <v>15.006591</v>
       </c>
       <c r="M4" s="1">
-        <v>942.405000</v>
+        <v>942.40499999999997</v>
       </c>
       <c r="N4" s="1">
-        <v>-117.887000</v>
+        <v>-117.887</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>54033.931915</v>
+        <v>54033.931915000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>15.009426</v>
+        <v>15.009425999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>948.929000</v>
+        <v>948.92899999999997</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.934000</v>
+        <v>-102.934</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>54044.500690</v>
+        <v>54044.500690000001</v>
       </c>
       <c r="V4" s="1">
         <v>15.012361</v>
       </c>
       <c r="W4" s="1">
-        <v>955.412000</v>
+        <v>955.41200000000003</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.555300</v>
+        <v>-89.555300000000003</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>54054.974706</v>
+        <v>54054.974706000001</v>
       </c>
       <c r="AA4" s="1">
         <v>15.015271</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.738000</v>
+        <v>962.73800000000006</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.362200</v>
+        <v>-80.362200000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>54065.548886</v>
+        <v>54065.548885999997</v>
       </c>
       <c r="AF4" s="1">
         <v>15.018208</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.826000</v>
+        <v>967.82600000000002</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.003300</v>
+        <v>-80.003299999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>54076.360715</v>
+        <v>54076.360715000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>15.021211</v>
+        <v>15.021210999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>975.746000</v>
+        <v>975.74599999999998</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.996500</v>
+        <v>-87.996499999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>54086.987006</v>
+        <v>54086.987006000003</v>
       </c>
       <c r="AP4" s="1">
         <v>15.024163</v>
       </c>
       <c r="AQ4" s="1">
-        <v>985.044000</v>
+        <v>985.04399999999998</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.122000</v>
+        <v>-103.122</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>54097.662390</v>
+        <v>54097.662389999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>15.027128</v>
+        <v>15.027127999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.530000</v>
+        <v>996.53</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.882000</v>
+        <v>-124.88200000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>54108.732078</v>
+        <v>54108.732078000001</v>
       </c>
       <c r="AZ4" s="1">
         <v>15.030203</v>
       </c>
       <c r="BA4" s="1">
-        <v>1006.280000</v>
+        <v>1006.28</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.782000</v>
+        <v>-143.78200000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>54119.288463</v>
+        <v>54119.288462999997</v>
       </c>
       <c r="BE4" s="1">
-        <v>15.033136</v>
+        <v>15.033136000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1052.160000</v>
+        <v>1052.1600000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.089000</v>
+        <v>-229.089</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>54130.647808</v>
+        <v>54130.647808000002</v>
       </c>
       <c r="BJ4" s="1">
         <v>15.036291</v>
       </c>
       <c r="BK4" s="1">
-        <v>1132.630000</v>
+        <v>1132.6300000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-365.341000</v>
+        <v>-365.34100000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>54141.113432</v>
+        <v>54141.113431999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>15.039198</v>
+        <v>15.039198000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1265.030000</v>
+        <v>1265.03</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-575.215000</v>
+        <v>-575.21500000000003</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>54151.611748</v>
+        <v>54151.611748000003</v>
       </c>
       <c r="BT4" s="1">
         <v>15.042114</v>
       </c>
       <c r="BU4" s="1">
-        <v>1413.560000</v>
+        <v>1413.56</v>
       </c>
       <c r="BV4" s="1">
-        <v>-798.964000</v>
+        <v>-798.96400000000006</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>54162.328775</v>
+        <v>54162.328775000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>15.045091</v>
+        <v>15.045090999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1575.480000</v>
+        <v>1575.48</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1032.680000</v>
+        <v>-1032.68</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>54173.458008</v>
+        <v>54173.458008000001</v>
       </c>
       <c r="CD4" s="1">
         <v>15.048183</v>
       </c>
       <c r="CE4" s="1">
-        <v>1983.930000</v>
+        <v>1983.93</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1578.980000</v>
+        <v>-1578.98</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>54004.022647</v>
+        <v>54004.022646999998</v>
       </c>
       <c r="B5" s="1">
-        <v>15.001117</v>
+        <v>15.001117000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>904.153000</v>
+        <v>904.15300000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>-192.644000</v>
+        <v>-192.64400000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>54013.982350</v>
+        <v>54013.982349999998</v>
       </c>
       <c r="G5" s="1">
-        <v>15.003884</v>
+        <v>15.003883999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>920.292000</v>
+        <v>920.29200000000003</v>
       </c>
       <c r="I5" s="1">
-        <v>-163.449000</v>
+        <v>-163.44900000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>54024.069981</v>
+        <v>54024.069981000001</v>
       </c>
       <c r="L5" s="1">
         <v>15.006686</v>
       </c>
       <c r="M5" s="1">
-        <v>942.260000</v>
+        <v>942.26</v>
       </c>
       <c r="N5" s="1">
-        <v>-117.761000</v>
+        <v>-117.761</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>54034.280623</v>
+        <v>54034.280622999999</v>
       </c>
       <c r="Q5" s="1">
         <v>15.009522</v>
       </c>
       <c r="R5" s="1">
-        <v>948.861000</v>
+        <v>948.86099999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.980000</v>
+        <v>-102.98</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>54044.844881</v>
+        <v>54044.844880999997</v>
       </c>
       <c r="V5" s="1">
-        <v>15.012457</v>
+        <v>15.012456999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>955.515000</v>
+        <v>955.51499999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.605100</v>
+        <v>-89.605099999999993</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>54055.325843</v>
+        <v>54055.325842999999</v>
       </c>
       <c r="AA5" s="1">
         <v>15.015368</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.723000</v>
+        <v>962.72299999999996</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.275400</v>
+        <v>-80.275400000000005</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>54066.237367</v>
+        <v>54066.237367000002</v>
       </c>
       <c r="AF5" s="1">
         <v>15.018399</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.739000</v>
+        <v>967.73900000000003</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.031700</v>
+        <v>-80.031700000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>54076.710359</v>
+        <v>54076.710358999997</v>
       </c>
       <c r="AK5" s="1">
-        <v>15.021308</v>
+        <v>15.021307999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>975.761000</v>
+        <v>975.76099999999997</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.996400</v>
+        <v>-87.996399999999994</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>54087.347562</v>
+        <v>54087.347562000003</v>
       </c>
       <c r="AP5" s="1">
-        <v>15.024263</v>
+        <v>15.024262999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>985.042000</v>
+        <v>985.04200000000003</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.146000</v>
+        <v>-103.146</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>54098.029404</v>
+        <v>54098.029404000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>15.027230</v>
+        <v>15.027229999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.528000</v>
+        <v>996.52800000000002</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.887000</v>
+        <v>-124.887</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>54109.102621</v>
+        <v>54109.102620999998</v>
       </c>
       <c r="AZ5" s="1">
         <v>15.030306</v>
       </c>
       <c r="BA5" s="1">
-        <v>1006.270000</v>
+        <v>1006.27</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.779000</v>
+        <v>-143.779</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>54119.959554</v>
+        <v>54119.959554000001</v>
       </c>
       <c r="BE5" s="1">
         <v>15.033322</v>
       </c>
       <c r="BF5" s="1">
-        <v>1052.180000</v>
+        <v>1052.18</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.095000</v>
+        <v>-229.095</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>54130.757920</v>
+        <v>54130.757919999996</v>
       </c>
       <c r="BJ5" s="1">
         <v>15.036322</v>
       </c>
       <c r="BK5" s="1">
-        <v>1132.580000</v>
+        <v>1132.58</v>
       </c>
       <c r="BL5" s="1">
-        <v>-365.346000</v>
+        <v>-365.346</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>54141.222546</v>
+        <v>54141.222545999997</v>
       </c>
       <c r="BO5" s="1">
         <v>15.039228</v>
       </c>
       <c r="BP5" s="1">
-        <v>1265.040000</v>
+        <v>1265.04</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-575.256000</v>
+        <v>-575.25599999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>54152.021909</v>
+        <v>54152.021909000003</v>
       </c>
       <c r="BT5" s="1">
         <v>15.042228</v>
       </c>
       <c r="BU5" s="1">
-        <v>1413.570000</v>
+        <v>1413.57</v>
       </c>
       <c r="BV5" s="1">
-        <v>-798.996000</v>
+        <v>-798.99599999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>54162.750869</v>
+        <v>54162.750869000003</v>
       </c>
       <c r="BY5" s="1">
         <v>15.045209</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1575.470000</v>
+        <v>1575.47</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1032.710000</v>
+        <v>-1032.71</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>54173.976366</v>
+        <v>54173.976366000003</v>
       </c>
       <c r="CD5" s="1">
         <v>15.048327</v>
       </c>
       <c r="CE5" s="1">
-        <v>1983.350000</v>
+        <v>1983.35</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1578.820000</v>
+        <v>-1578.82</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>54004.295447</v>
+        <v>54004.295446999997</v>
       </c>
       <c r="B6" s="1">
-        <v>15.001193</v>
+        <v>15.001193000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>904.388000</v>
+        <v>904.38800000000003</v>
       </c>
       <c r="D6" s="1">
-        <v>-192.733000</v>
+        <v>-192.733</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>54014.326043</v>
+        <v>54014.326043000001</v>
       </c>
       <c r="G6" s="1">
-        <v>15.003979</v>
+        <v>15.003978999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>920.239000</v>
+        <v>920.23900000000003</v>
       </c>
       <c r="I6" s="1">
-        <v>-163.613000</v>
+        <v>-163.613</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>54024.419134</v>
+        <v>54024.419134000003</v>
       </c>
       <c r="L6" s="1">
         <v>15.006783</v>
       </c>
       <c r="M6" s="1">
-        <v>942.267000</v>
+        <v>942.26700000000005</v>
       </c>
       <c r="N6" s="1">
-        <v>-117.773000</v>
+        <v>-117.773</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>54034.628816</v>
+        <v>54034.628815999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>15.009619</v>
+        <v>15.009619000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>948.895000</v>
+        <v>948.89499999999998</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.938000</v>
+        <v>-102.938</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>54045.531344</v>
+        <v>54045.531344000003</v>
       </c>
       <c r="V6" s="1">
         <v>15.012648</v>
       </c>
       <c r="W6" s="1">
-        <v>955.422000</v>
+        <v>955.42200000000003</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.641600</v>
+        <v>-89.641599999999997</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>54056.022226</v>
+        <v>54056.022226000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>15.015562</v>
+        <v>15.015561999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.755000</v>
+        <v>962.755</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.417200</v>
+        <v>-80.417199999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>54066.585030</v>
+        <v>54066.585030000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>15.018496</v>
+        <v>15.018496000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.756000</v>
+        <v>967.75599999999997</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.007400</v>
+        <v>-80.007400000000004</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>54077.056567</v>
@@ -1614,88 +2030,88 @@
         <v>15.021405</v>
       </c>
       <c r="AL6" s="1">
-        <v>975.754000</v>
+        <v>975.75400000000002</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.994700</v>
+        <v>-87.994699999999995</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>54087.707657</v>
+        <v>54087.707656999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>15.024363</v>
+        <v>15.024362999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>985.006000</v>
+        <v>985.00599999999997</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.147000</v>
+        <v>-103.14700000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>54098.701978</v>
+        <v>54098.701977999997</v>
       </c>
       <c r="AU6" s="1">
         <v>15.027417</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.538000</v>
+        <v>996.53800000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.881000</v>
+        <v>-124.881</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>54109.642876</v>
+        <v>54109.642875999998</v>
       </c>
       <c r="AZ6" s="1">
-        <v>15.030456</v>
+        <v>15.030455999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1006.280000</v>
+        <v>1006.28</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.789000</v>
+        <v>-143.78899999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>54120.398973</v>
+        <v>54120.398973000003</v>
       </c>
       <c r="BE6" s="1">
-        <v>15.033444</v>
+        <v>15.033443999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1052.170000</v>
+        <v>1052.17</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.106000</v>
+        <v>-229.10599999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>54131.127439</v>
+        <v>54131.127439000004</v>
       </c>
       <c r="BJ6" s="1">
         <v>15.036424</v>
       </c>
       <c r="BK6" s="1">
-        <v>1132.590000</v>
+        <v>1132.5899999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-365.356000</v>
+        <v>-365.35599999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>54141.645634</v>
@@ -1704,270 +2120,270 @@
         <v>15.039346</v>
       </c>
       <c r="BP6" s="1">
-        <v>1265.040000</v>
+        <v>1265.04</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-575.214000</v>
+        <v>-575.21400000000006</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>54152.453454</v>
+        <v>54152.453454000002</v>
       </c>
       <c r="BT6" s="1">
         <v>15.042348</v>
       </c>
       <c r="BU6" s="1">
-        <v>1413.560000</v>
+        <v>1413.56</v>
       </c>
       <c r="BV6" s="1">
-        <v>-799.086000</v>
+        <v>-799.08600000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>54163.170990</v>
+        <v>54163.170989999999</v>
       </c>
       <c r="BY6" s="1">
         <v>15.045325</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1575.550000</v>
+        <v>1575.55</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1032.790000</v>
+        <v>-1032.79</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>54174.529889</v>
+        <v>54174.529888999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>15.048481</v>
+        <v>15.048481000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1984.220000</v>
+        <v>1984.22</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1577.270000</v>
+        <v>-1577.27</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>54004.637686</v>
+        <v>54004.637686000002</v>
       </c>
       <c r="B7" s="1">
-        <v>15.001288</v>
+        <v>15.001288000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>904.201000</v>
+        <v>904.20100000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-192.648000</v>
+        <v>-192.648</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>54014.673738</v>
+        <v>54014.673737999998</v>
       </c>
       <c r="G7" s="1">
         <v>15.004076</v>
       </c>
       <c r="H7" s="1">
-        <v>920.773000</v>
+        <v>920.77300000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>-163.591000</v>
+        <v>-163.59100000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>54025.109563</v>
+        <v>54025.109562999998</v>
       </c>
       <c r="L7" s="1">
-        <v>15.006975</v>
+        <v>15.006975000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>942.336000</v>
+        <v>942.33600000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-117.813000</v>
+        <v>-117.813</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>54035.325663</v>
+        <v>54035.325663000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>15.009813</v>
+        <v>15.009812999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>948.886000</v>
+        <v>948.88599999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.919000</v>
+        <v>-102.919</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>54045.872096</v>
+        <v>54045.872095999999</v>
       </c>
       <c r="V7" s="1">
-        <v>15.012742</v>
+        <v>15.012741999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>955.441000</v>
+        <v>955.44100000000003</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.486900</v>
+        <v>-89.486900000000006</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>54056.366946</v>
+        <v>54056.366946000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>15.015657</v>
+        <v>15.015656999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.879000</v>
+        <v>962.87900000000002</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.399900</v>
+        <v>-80.399900000000002</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>54066.928260</v>
+        <v>54066.928260000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>15.018591</v>
+        <v>15.018591000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.794000</v>
+        <v>967.79399999999998</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.036300</v>
+        <v>-80.036299999999997</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>54077.719222</v>
       </c>
       <c r="AK7" s="1">
-        <v>15.021589</v>
+        <v>15.021589000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>975.781000</v>
+        <v>975.78099999999995</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.003200</v>
+        <v>-88.003200000000007</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>54088.374779</v>
+        <v>54088.374778999998</v>
       </c>
       <c r="AP7" s="1">
         <v>15.024549</v>
       </c>
       <c r="AQ7" s="1">
-        <v>985.028000</v>
+        <v>985.02800000000002</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.130000</v>
+        <v>-103.13</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>54099.145897</v>
+        <v>54099.145897000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>15.027541</v>
+        <v>15.027540999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.518000</v>
+        <v>996.51800000000003</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.867000</v>
+        <v>-124.867</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>54109.810875</v>
+        <v>54109.810875000003</v>
       </c>
       <c r="AZ7" s="1">
         <v>15.030503</v>
       </c>
       <c r="BA7" s="1">
-        <v>1006.250000</v>
+        <v>1006.25</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.795000</v>
+        <v>-143.79499999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>54120.765552</v>
+        <v>54120.765551999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>15.033546</v>
+        <v>15.033545999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1052.160000</v>
+        <v>1052.1600000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.069000</v>
+        <v>-229.06899999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>54131.500431</v>
       </c>
       <c r="BJ7" s="1">
-        <v>15.036528</v>
+        <v>15.036528000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1132.600000</v>
+        <v>1132.5999999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-365.322000</v>
+        <v>-365.322</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>54142.042403</v>
+        <v>54142.042402999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>15.039456</v>
+        <v>15.039455999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1265.020000</v>
+        <v>1265.02</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-575.243000</v>
+        <v>-575.24300000000005</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>54152.881511</v>
@@ -1976,407 +2392,407 @@
         <v>15.042467</v>
       </c>
       <c r="BU7" s="1">
-        <v>1413.560000</v>
+        <v>1413.56</v>
       </c>
       <c r="BV7" s="1">
-        <v>-799.062000</v>
+        <v>-799.06200000000001</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>54163.597572</v>
+        <v>54163.597571999999</v>
       </c>
       <c r="BY7" s="1">
         <v>15.045444</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1575.510000</v>
+        <v>1575.51</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1032.750000</v>
+        <v>-1032.75</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>54175.059094</v>
+        <v>54175.059093999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>15.048628</v>
+        <v>15.048628000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1983.820000</v>
+        <v>1983.82</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1579.070000</v>
+        <v>-1579.07</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>54004.975958</v>
+        <v>54004.975958000003</v>
       </c>
       <c r="B8" s="1">
         <v>15.001382</v>
       </c>
       <c r="C8" s="1">
-        <v>904.129000</v>
+        <v>904.12900000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>-192.579000</v>
+        <v>-192.57900000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>54015.364665</v>
+        <v>54015.364665000001</v>
       </c>
       <c r="G8" s="1">
         <v>15.004268</v>
       </c>
       <c r="H8" s="1">
-        <v>920.720000</v>
+        <v>920.72</v>
       </c>
       <c r="I8" s="1">
-        <v>-163.480000</v>
+        <v>-163.47999999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>54025.457755</v>
+        <v>54025.457755000003</v>
       </c>
       <c r="L8" s="1">
-        <v>15.007072</v>
+        <v>15.007072000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>942.381000</v>
+        <v>942.38099999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-117.620000</v>
+        <v>-117.62</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>54035.672898</v>
+        <v>54035.672897999997</v>
       </c>
       <c r="Q8" s="1">
         <v>15.009909</v>
       </c>
       <c r="R8" s="1">
-        <v>948.903000</v>
+        <v>948.90300000000002</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.891000</v>
+        <v>-102.89100000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>54046.217312</v>
+        <v>54046.217312000001</v>
       </c>
       <c r="V8" s="1">
         <v>15.012838</v>
       </c>
       <c r="W8" s="1">
-        <v>955.482000</v>
+        <v>955.48199999999997</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.534000</v>
+        <v>-89.534000000000006</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>54056.718609</v>
+        <v>54056.718609000003</v>
       </c>
       <c r="AA8" s="1">
         <v>15.015755</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.799000</v>
+        <v>962.79899999999998</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.329800</v>
+        <v>-80.329800000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>54067.581027</v>
       </c>
       <c r="AF8" s="1">
-        <v>15.018773</v>
+        <v>15.018772999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.791000</v>
+        <v>967.79100000000005</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.110700</v>
+        <v>-80.110699999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>54078.101672</v>
+        <v>54078.101671999997</v>
       </c>
       <c r="AK8" s="1">
-        <v>15.021695</v>
+        <v>15.021694999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>975.767000</v>
+        <v>975.76700000000005</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.997000</v>
+        <v>-87.997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>54088.815225</v>
+        <v>54088.815224999998</v>
       </c>
       <c r="AP8" s="1">
         <v>15.024671</v>
       </c>
       <c r="AQ8" s="1">
-        <v>985.032000</v>
+        <v>985.03200000000004</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.133000</v>
+        <v>-103.133</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>54099.509465</v>
+        <v>54099.509465000003</v>
       </c>
       <c r="AU8" s="1">
         <v>15.027642</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.549000</v>
+        <v>996.54899999999998</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.889000</v>
+        <v>-124.889</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>54110.167996</v>
+        <v>54110.167995999996</v>
       </c>
       <c r="AZ8" s="1">
         <v>15.030602</v>
       </c>
       <c r="BA8" s="1">
-        <v>1006.270000</v>
+        <v>1006.27</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.785000</v>
+        <v>-143.785</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>54121.124125</v>
+        <v>54121.124125000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>15.033646</v>
+        <v>15.033645999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1052.180000</v>
+        <v>1052.18</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.078000</v>
+        <v>-229.078</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>54131.915582</v>
+        <v>54131.915582000001</v>
       </c>
       <c r="BJ8" s="1">
         <v>15.036643</v>
       </c>
       <c r="BK8" s="1">
-        <v>1132.600000</v>
+        <v>1132.5999999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-365.363000</v>
+        <v>-365.363</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>54142.472432</v>
+        <v>54142.472432000002</v>
       </c>
       <c r="BO8" s="1">
         <v>15.039576</v>
       </c>
       <c r="BP8" s="1">
-        <v>1265.020000</v>
+        <v>1265.02</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-575.299000</v>
+        <v>-575.29899999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>54153.296131</v>
+        <v>54153.296131000003</v>
       </c>
       <c r="BT8" s="1">
-        <v>15.042582</v>
+        <v>15.042581999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1413.490000</v>
+        <v>1413.49</v>
       </c>
       <c r="BV8" s="1">
-        <v>-799.037000</v>
+        <v>-799.03700000000003</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>54164.015667</v>
       </c>
       <c r="BY8" s="1">
-        <v>15.045560</v>
+        <v>15.04556</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1575.400000</v>
+        <v>1575.4</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1032.630000</v>
+        <v>-1032.6300000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>54175.575926</v>
+        <v>54175.575925999998</v>
       </c>
       <c r="CD8" s="1">
         <v>15.048771</v>
       </c>
       <c r="CE8" s="1">
-        <v>1983.330000</v>
+        <v>1983.33</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1578.530000</v>
+        <v>-1578.53</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>54005.662453</v>
+        <v>54005.662452999997</v>
       </c>
       <c r="B9" s="1">
         <v>15.001573</v>
       </c>
       <c r="C9" s="1">
-        <v>904.186000</v>
+        <v>904.18600000000004</v>
       </c>
       <c r="D9" s="1">
-        <v>-192.689000</v>
+        <v>-192.68899999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>54015.709383</v>
+        <v>54015.709383000001</v>
       </c>
       <c r="G9" s="1">
-        <v>15.004364</v>
+        <v>15.004364000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>920.207000</v>
+        <v>920.20699999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-163.835000</v>
+        <v>-163.83500000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>54025.804460</v>
+        <v>54025.804459999999</v>
       </c>
       <c r="L9" s="1">
         <v>15.007168</v>
       </c>
       <c r="M9" s="1">
-        <v>942.349000</v>
+        <v>942.34900000000005</v>
       </c>
       <c r="N9" s="1">
-        <v>-117.763000</v>
+        <v>-117.76300000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>54036.012125</v>
+        <v>54036.012125000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>15.010003</v>
+        <v>15.010002999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>948.919000</v>
+        <v>948.91899999999998</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.936000</v>
+        <v>-102.93600000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>54046.865275</v>
+        <v>54046.865274999996</v>
       </c>
       <c r="V9" s="1">
-        <v>15.013018</v>
+        <v>15.013018000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>955.445000</v>
+        <v>955.44500000000005</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.683000</v>
+        <v>-89.683000000000007</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>54057.460128</v>
+        <v>54057.460127999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>15.015961</v>
+        <v>15.015961000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.745000</v>
+        <v>962.745</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.314500</v>
+        <v>-80.314499999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>54067.958979</v>
+        <v>54067.958979000003</v>
       </c>
       <c r="AF9" s="1">
         <v>15.018877</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.634000</v>
+        <v>967.63400000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.146800</v>
+        <v>-80.146799999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>54078.451814</v>
@@ -2385,73 +2801,73 @@
         <v>15.021792</v>
       </c>
       <c r="AL9" s="1">
-        <v>975.772000</v>
+        <v>975.77200000000005</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.991600</v>
+        <v>-87.991600000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>54089.176312</v>
+        <v>54089.176312000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>15.024771</v>
+        <v>15.024770999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>985.026000</v>
+        <v>985.02599999999995</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.134000</v>
+        <v>-103.134</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>54099.876504</v>
       </c>
       <c r="AU9" s="1">
-        <v>15.027743</v>
+        <v>15.027742999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.542000</v>
+        <v>996.54200000000003</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.900000</v>
+        <v>-124.9</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>54110.586123</v>
+        <v>54110.586123000001</v>
       </c>
       <c r="AZ9" s="1">
         <v>15.030718</v>
       </c>
       <c r="BA9" s="1">
-        <v>1006.280000</v>
+        <v>1006.28</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.778000</v>
+        <v>-143.77799999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>54121.539276</v>
+        <v>54121.539276000003</v>
       </c>
       <c r="BE9" s="1">
         <v>15.033761</v>
       </c>
       <c r="BF9" s="1">
-        <v>1052.160000</v>
+        <v>1052.1600000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.101000</v>
+        <v>-229.101</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>54132.251871</v>
@@ -2460,76 +2876,76 @@
         <v>15.036737</v>
       </c>
       <c r="BK9" s="1">
-        <v>1132.600000</v>
+        <v>1132.5999999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-365.334000</v>
+        <v>-365.334</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>54142.860305</v>
+        <v>54142.860305000002</v>
       </c>
       <c r="BO9" s="1">
         <v>15.039683</v>
       </c>
       <c r="BP9" s="1">
-        <v>1264.990000</v>
+        <v>1264.99</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-575.239000</v>
+        <v>-575.23900000000003</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>54153.724209</v>
       </c>
       <c r="BT9" s="1">
-        <v>15.042701</v>
+        <v>15.042700999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1413.520000</v>
+        <v>1413.52</v>
       </c>
       <c r="BV9" s="1">
-        <v>-799.069000</v>
+        <v>-799.06899999999996</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>54164.460084</v>
+        <v>54164.460083999998</v>
       </c>
       <c r="BY9" s="1">
         <v>15.045683</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1575.330000</v>
+        <v>1575.33</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1032.740000</v>
+        <v>-1032.74</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>54176.130453</v>
+        <v>54176.130452999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>15.048925</v>
+        <v>15.048925000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1983.820000</v>
+        <v>1983.82</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1577.700000</v>
+        <v>-1577.7</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>54006.005157</v>
       </c>
@@ -2537,677 +2953,677 @@
         <v>15.001668</v>
       </c>
       <c r="C10" s="1">
-        <v>904.261000</v>
+        <v>904.26099999999997</v>
       </c>
       <c r="D10" s="1">
-        <v>-192.613000</v>
+        <v>-192.613</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>54016.054104</v>
+        <v>54016.054104000003</v>
       </c>
       <c r="G10" s="1">
-        <v>15.004459</v>
+        <v>15.004459000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>920.461000</v>
+        <v>920.46100000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-163.199000</v>
+        <v>-163.19900000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>54026.459178</v>
+        <v>54026.459177999997</v>
       </c>
       <c r="L10" s="1">
-        <v>15.007350</v>
+        <v>15.007350000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>942.323000</v>
+        <v>942.32299999999998</v>
       </c>
       <c r="N10" s="1">
-        <v>-117.909000</v>
+        <v>-117.90900000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>54036.678286</v>
+        <v>54036.678286000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>15.010188</v>
+        <v>15.010187999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>948.938000</v>
+        <v>948.93799999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.953000</v>
+        <v>-102.953</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>54047.247038</v>
+        <v>54047.247038000001</v>
       </c>
       <c r="V10" s="1">
-        <v>15.013124</v>
+        <v>15.013123999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>955.389000</v>
+        <v>955.38900000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.473600</v>
+        <v>-89.473600000000005</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>54057.796912</v>
+        <v>54057.796911999998</v>
       </c>
       <c r="AA10" s="1">
         <v>15.016055</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.722000</v>
+        <v>962.72199999999998</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.287800</v>
+        <v>-80.287800000000004</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>54068.302178</v>
+        <v>54068.302177999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>15.018973</v>
+        <v>15.018973000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.803000</v>
+        <v>967.803</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.061200</v>
+        <v>-80.061199999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>54078.801028</v>
+        <v>54078.801028000002</v>
       </c>
       <c r="AK10" s="1">
         <v>15.021889</v>
       </c>
       <c r="AL10" s="1">
-        <v>975.779000</v>
+        <v>975.779</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.005000</v>
+        <v>-88.004999999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>54089.535911</v>
+        <v>54089.535910999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>15.024871</v>
+        <v>15.024870999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>985.023000</v>
+        <v>985.02300000000002</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.128000</v>
+        <v>-103.128</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>54100.289206</v>
+        <v>54100.289206000001</v>
       </c>
       <c r="AU10" s="1">
         <v>15.027858</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.543000</v>
+        <v>996.54300000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.879000</v>
+        <v>-124.879</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>54110.883723</v>
+        <v>54110.883722999999</v>
       </c>
       <c r="AZ10" s="1">
         <v>15.030801</v>
       </c>
       <c r="BA10" s="1">
-        <v>1006.260000</v>
+        <v>1006.26</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.778000</v>
+        <v>-143.77799999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>54121.846795</v>
+        <v>54121.846794999998</v>
       </c>
       <c r="BE10" s="1">
         <v>15.033846</v>
       </c>
       <c r="BF10" s="1">
-        <v>1052.190000</v>
+        <v>1052.19</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.113000</v>
+        <v>-229.113</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>54132.634285</v>
       </c>
       <c r="BJ10" s="1">
-        <v>15.036843</v>
+        <v>15.036842999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1132.580000</v>
+        <v>1132.58</v>
       </c>
       <c r="BL10" s="1">
-        <v>-365.369000</v>
+        <v>-365.36900000000003</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>54143.281903</v>
+        <v>54143.281903000003</v>
       </c>
       <c r="BO10" s="1">
-        <v>15.039801</v>
+        <v>15.039801000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1265.030000</v>
+        <v>1265.03</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-575.294000</v>
+        <v>-575.29399999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>54154.153714</v>
       </c>
       <c r="BT10" s="1">
-        <v>15.042820</v>
+        <v>15.042820000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1413.570000</v>
+        <v>1413.57</v>
       </c>
       <c r="BV10" s="1">
-        <v>-799.007000</v>
+        <v>-799.00699999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>54164.882178</v>
       </c>
       <c r="BY10" s="1">
-        <v>15.045801</v>
+        <v>15.045801000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1575.480000</v>
+        <v>1575.48</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1032.790000</v>
+        <v>-1032.79</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>54176.658692</v>
+        <v>54176.658691999997</v>
       </c>
       <c r="CD10" s="1">
-        <v>15.049072</v>
+        <v>15.049072000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1983.990000</v>
+        <v>1983.99</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1579.220000</v>
+        <v>-1579.22</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>54006.657892</v>
+        <v>54006.657892000003</v>
       </c>
       <c r="B11" s="1">
         <v>15.001849</v>
       </c>
       <c r="C11" s="1">
-        <v>904.346000</v>
+        <v>904.346</v>
       </c>
       <c r="D11" s="1">
-        <v>-192.632000</v>
+        <v>-192.63200000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>54016.703366</v>
+        <v>54016.703366000002</v>
       </c>
       <c r="G11" s="1">
-        <v>15.004640</v>
+        <v>15.00464</v>
       </c>
       <c r="H11" s="1">
-        <v>920.869000</v>
+        <v>920.86900000000003</v>
       </c>
       <c r="I11" s="1">
-        <v>-164.145000</v>
+        <v>-164.14500000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>54026.840602</v>
+        <v>54026.840601999997</v>
       </c>
       <c r="L11" s="1">
-        <v>15.007456</v>
+        <v>15.007455999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>942.371000</v>
+        <v>942.37099999999998</v>
       </c>
       <c r="N11" s="1">
-        <v>-117.915000</v>
+        <v>-117.91500000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>54037.070101</v>
+        <v>54037.070100999998</v>
       </c>
       <c r="Q11" s="1">
         <v>15.010297</v>
       </c>
       <c r="R11" s="1">
-        <v>948.857000</v>
+        <v>948.85699999999997</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.956000</v>
+        <v>-102.956</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>54047.589743</v>
+        <v>54047.589742999997</v>
       </c>
       <c r="V11" s="1">
-        <v>15.013219</v>
+        <v>15.013218999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>955.513000</v>
+        <v>955.51300000000003</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.613100</v>
+        <v>-89.613100000000003</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>54058.126785</v>
       </c>
       <c r="AA11" s="1">
-        <v>15.016146</v>
+        <v>15.016146000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.783000</v>
+        <v>962.78300000000002</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.316800</v>
+        <v>-80.316800000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>54068.645410</v>
+        <v>54068.645409999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>15.019068</v>
+        <v>15.019068000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.753000</v>
+        <v>967.75300000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.060900</v>
+        <v>-80.060900000000004</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>54079.231525</v>
+        <v>54079.231525000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>15.022009</v>
+        <v>15.022009000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>975.760000</v>
+        <v>975.76</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.008800</v>
+        <v>-88.008799999999994</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>54089.960982</v>
+        <v>54089.960981999997</v>
       </c>
       <c r="AP11" s="1">
         <v>15.024989</v>
       </c>
       <c r="AQ11" s="1">
-        <v>985.016000</v>
+        <v>985.01599999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.132000</v>
+        <v>-103.13200000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>54100.600663</v>
+        <v>54100.600662999997</v>
       </c>
       <c r="AU11" s="1">
-        <v>15.027945</v>
+        <v>15.027945000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.512000</v>
+        <v>996.51199999999994</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.892000</v>
+        <v>-124.892</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>54111.242335</v>
+        <v>54111.242335000003</v>
       </c>
       <c r="AZ11" s="1">
         <v>15.030901</v>
       </c>
       <c r="BA11" s="1">
-        <v>1006.270000</v>
+        <v>1006.27</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.793000</v>
+        <v>-143.79300000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>54122.206396</v>
+        <v>54122.206396000001</v>
       </c>
       <c r="BE11" s="1">
         <v>15.033946</v>
       </c>
       <c r="BF11" s="1">
-        <v>1052.180000</v>
+        <v>1052.18</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.100000</v>
+        <v>-229.1</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>54133.025661</v>
       </c>
       <c r="BJ11" s="1">
-        <v>15.036952</v>
+        <v>15.036951999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1132.600000</v>
+        <v>1132.5999999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-365.358000</v>
+        <v>-365.358</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>54143.694612</v>
+        <v>54143.694611999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>15.039915</v>
+        <v>15.039915000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1265.030000</v>
+        <v>1265.03</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-575.206000</v>
+        <v>-575.20600000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>54154.578790</v>
+        <v>54154.57879</v>
       </c>
       <c r="BT11" s="1">
-        <v>15.042939</v>
+        <v>15.042939000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1413.490000</v>
+        <v>1413.49</v>
       </c>
       <c r="BV11" s="1">
-        <v>-799.032000</v>
+        <v>-799.03200000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>54165.305762</v>
+        <v>54165.305762000004</v>
       </c>
       <c r="BY11" s="1">
         <v>15.045918</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1575.490000</v>
+        <v>1575.49</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1032.770000</v>
+        <v>-1032.77</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>54177.178002</v>
+        <v>54177.178002000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>15.049216</v>
+        <v>15.049215999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1983.310000</v>
+        <v>1983.31</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1578.560000</v>
+        <v>-1578.56</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>54007.029396</v>
+        <v>54007.029395999998</v>
       </c>
       <c r="B12" s="1">
         <v>15.001953</v>
       </c>
       <c r="C12" s="1">
-        <v>904.288000</v>
+        <v>904.28800000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-192.635000</v>
+        <v>-192.63499999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>54017.086775</v>
+        <v>54017.086775000003</v>
       </c>
       <c r="G12" s="1">
-        <v>15.004746</v>
+        <v>15.004746000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>920.640000</v>
+        <v>920.64</v>
       </c>
       <c r="I12" s="1">
-        <v>-163.603000</v>
+        <v>-163.60300000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>54027.186809</v>
+        <v>54027.186808999999</v>
       </c>
       <c r="L12" s="1">
         <v>15.007552</v>
       </c>
       <c r="M12" s="1">
-        <v>942.385000</v>
+        <v>942.38499999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-117.750000</v>
+        <v>-117.75</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>54037.419302</v>
+        <v>54037.419302000002</v>
       </c>
       <c r="Q12" s="1">
         <v>15.010394</v>
       </c>
       <c r="R12" s="1">
-        <v>948.886000</v>
+        <v>948.88599999999997</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.918000</v>
+        <v>-102.91800000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>54047.936975</v>
+        <v>54047.936974999997</v>
       </c>
       <c r="V12" s="1">
         <v>15.013316</v>
       </c>
       <c r="W12" s="1">
-        <v>955.476000</v>
+        <v>955.476</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.624600</v>
+        <v>-89.624600000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>54058.549376</v>
+        <v>54058.549376000003</v>
       </c>
       <c r="AA12" s="1">
         <v>15.016264</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.751000</v>
+        <v>962.75099999999998</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.341200</v>
+        <v>-80.341200000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>54069.067009</v>
+        <v>54069.067008999999</v>
       </c>
       <c r="AF12" s="1">
         <v>15.019185</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.740000</v>
+        <v>967.74</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.969600</v>
+        <v>-79.9696</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>54079.513284</v>
+        <v>54079.513284000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>15.022087</v>
+        <v>15.022087000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>975.755000</v>
+        <v>975.755</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.014000</v>
+        <v>-88.013999999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>54090.257589</v>
+        <v>54090.257589000001</v>
       </c>
       <c r="AP12" s="1">
         <v>15.025072</v>
       </c>
       <c r="AQ12" s="1">
-        <v>985.012000</v>
+        <v>985.01199999999994</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.125000</v>
+        <v>-103.125</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>54100.969223</v>
       </c>
       <c r="AU12" s="1">
-        <v>15.028047</v>
+        <v>15.028047000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.538000</v>
+        <v>996.53800000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.900000</v>
+        <v>-124.9</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>54111.600441</v>
+        <v>54111.600441000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>15.031000</v>
+        <v>15.031000000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1006.260000</v>
+        <v>1006.26</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.788000</v>
+        <v>-143.78800000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>54122.566026</v>
@@ -3216,210 +3632,210 @@
         <v>15.034046</v>
       </c>
       <c r="BF12" s="1">
-        <v>1052.160000</v>
+        <v>1052.1600000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.091000</v>
+        <v>-229.09100000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>54133.772604</v>
+        <v>54133.772603999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>15.037159</v>
+        <v>15.037159000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1132.600000</v>
+        <v>1132.5999999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-365.327000</v>
+        <v>-365.327</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>54144.497136</v>
+        <v>54144.497135999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>15.040138</v>
+        <v>15.040138000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1265.000000</v>
+        <v>1265</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-575.261000</v>
+        <v>-575.26099999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>54154.992943</v>
+        <v>54154.992942999997</v>
       </c>
       <c r="BT12" s="1">
         <v>15.043054</v>
       </c>
       <c r="BU12" s="1">
-        <v>1413.480000</v>
+        <v>1413.48</v>
       </c>
       <c r="BV12" s="1">
-        <v>-798.940000</v>
+        <v>-798.94</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>54165.756131</v>
+        <v>54165.756131000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>15.046043</v>
+        <v>15.046042999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1575.300000</v>
+        <v>1575.3</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1032.750000</v>
+        <v>-1032.75</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>54177.732530</v>
+        <v>54177.732530000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>15.049370</v>
+        <v>15.04937</v>
       </c>
       <c r="CE12" s="1">
-        <v>1983.950000</v>
+        <v>1983.95</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1577.370000</v>
+        <v>-1577.37</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>54007.377092</v>
+        <v>54007.377092000002</v>
       </c>
       <c r="B13" s="1">
         <v>15.002049</v>
       </c>
       <c r="C13" s="1">
-        <v>904.242000</v>
+        <v>904.24199999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-192.738000</v>
+        <v>-192.738</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>54017.434006</v>
+        <v>54017.434006000003</v>
       </c>
       <c r="G13" s="1">
-        <v>15.004843</v>
+        <v>15.004842999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>920.892000</v>
+        <v>920.89200000000005</v>
       </c>
       <c r="I13" s="1">
-        <v>-163.438000</v>
+        <v>-163.43799999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>54027.533741</v>
+        <v>54027.533740999999</v>
       </c>
       <c r="L13" s="1">
         <v>15.007648</v>
       </c>
       <c r="M13" s="1">
-        <v>942.360000</v>
+        <v>942.36</v>
       </c>
       <c r="N13" s="1">
-        <v>-117.833000</v>
+        <v>-117.833</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>54037.764490</v>
+        <v>54037.764490000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>15.010490</v>
+        <v>15.010490000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>948.883000</v>
+        <v>948.88300000000004</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.907000</v>
+        <v>-102.907</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>54048.350109</v>
+        <v>54048.350108999999</v>
       </c>
       <c r="V13" s="1">
-        <v>15.013431</v>
+        <v>15.013431000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>955.363000</v>
+        <v>955.36300000000006</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.569700</v>
+        <v>-89.569699999999997</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>54058.829087</v>
+        <v>54058.829086999998</v>
       </c>
       <c r="AA13" s="1">
-        <v>15.016341</v>
+        <v>15.016341000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.755000</v>
+        <v>962.755</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.344100</v>
+        <v>-80.344099999999997</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>54069.337365</v>
+        <v>54069.337364999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>15.019260</v>
+        <v>15.019259999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.810000</v>
+        <v>967.81</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.041400</v>
+        <v>-80.041399999999996</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>54079.863467</v>
+        <v>54079.863467000003</v>
       </c>
       <c r="AK13" s="1">
-        <v>15.022184</v>
+        <v>15.022183999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>975.769000</v>
+        <v>975.76900000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.991900</v>
+        <v>-87.991900000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>54090.616704</v>
@@ -3428,58 +3844,58 @@
         <v>15.025171</v>
       </c>
       <c r="AQ13" s="1">
-        <v>985.039000</v>
+        <v>985.03899999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.120000</v>
+        <v>-103.12</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>54101.333750</v>
+        <v>54101.333749999998</v>
       </c>
       <c r="AU13" s="1">
         <v>15.028148</v>
       </c>
       <c r="AV13" s="1">
-        <v>996.530000</v>
+        <v>996.53</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.871000</v>
+        <v>-124.871</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>54112.333034</v>
+        <v>54112.333034000003</v>
       </c>
       <c r="AZ13" s="1">
-        <v>15.031204</v>
+        <v>15.031204000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1006.250000</v>
+        <v>1006.25</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.775000</v>
+        <v>-143.77500000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>54123.289163</v>
+        <v>54123.289163000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>15.034247</v>
+        <v>15.034247000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1052.180000</v>
+        <v>1052.18</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.086000</v>
+        <v>-229.08600000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>54134.175852</v>
@@ -3488,135 +3904,135 @@
         <v>15.037271</v>
       </c>
       <c r="BK13" s="1">
-        <v>1132.580000</v>
+        <v>1132.58</v>
       </c>
       <c r="BL13" s="1">
-        <v>-365.317000</v>
+        <v>-365.31700000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>54144.910799</v>
+        <v>54144.910798999997</v>
       </c>
       <c r="BO13" s="1">
         <v>15.040253</v>
       </c>
       <c r="BP13" s="1">
-        <v>1265.020000</v>
+        <v>1265.02</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-575.264000</v>
+        <v>-575.26400000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>54155.423967</v>
+        <v>54155.423967000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>15.043173</v>
+        <v>15.043172999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1413.520000</v>
+        <v>1413.52</v>
       </c>
       <c r="BV13" s="1">
-        <v>-798.967000</v>
+        <v>-798.96699999999998</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>54166.489712</v>
+        <v>54166.489712000002</v>
       </c>
       <c r="BY13" s="1">
-        <v>15.046247</v>
+        <v>15.046246999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1575.470000</v>
+        <v>1575.47</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1032.770000</v>
+        <v>-1032.77</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>54178.567297</v>
+        <v>54178.567297000001</v>
       </c>
       <c r="CD13" s="1">
         <v>15.049602</v>
       </c>
       <c r="CE13" s="1">
-        <v>1983.780000</v>
+        <v>1983.78</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1579.450000</v>
+        <v>-1579.45</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>54007.715890</v>
+        <v>54007.715889999999</v>
       </c>
       <c r="B14" s="1">
         <v>15.002143</v>
       </c>
       <c r="C14" s="1">
-        <v>904.203000</v>
+        <v>904.20299999999997</v>
       </c>
       <c r="D14" s="1">
-        <v>-192.654000</v>
+        <v>-192.654</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>54017.778197</v>
       </c>
       <c r="G14" s="1">
-        <v>15.004938</v>
+        <v>15.004937999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>920.406000</v>
+        <v>920.40599999999995</v>
       </c>
       <c r="I14" s="1">
-        <v>-163.405000</v>
+        <v>-163.405</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>54027.945191</v>
+        <v>54027.945190999999</v>
       </c>
       <c r="L14" s="1">
-        <v>15.007763</v>
+        <v>15.007763000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>942.389000</v>
+        <v>942.38900000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-117.808000</v>
+        <v>-117.80800000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>54038.175713</v>
+        <v>54038.175712999997</v>
       </c>
       <c r="Q14" s="1">
-        <v>15.010604</v>
+        <v>15.010604000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>948.929000</v>
+        <v>948.92899999999997</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.917000</v>
+        <v>-102.917</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>54048.643742</v>
@@ -3625,58 +4041,58 @@
         <v>15.013512</v>
       </c>
       <c r="W14" s="1">
-        <v>955.397000</v>
+        <v>955.39700000000005</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.558000</v>
+        <v>-89.558000000000007</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>54059.176287</v>
+        <v>54059.176287000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>15.016438</v>
+        <v>15.016438000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.763000</v>
+        <v>962.76300000000003</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.310400</v>
+        <v>-80.310400000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>54069.681552</v>
+        <v>54069.681552000002</v>
       </c>
       <c r="AF14" s="1">
         <v>15.019356</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.791000</v>
+        <v>967.79100000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.038000</v>
+        <v>-80.037999999999997</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>54080.208643</v>
+        <v>54080.208642999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>15.022280</v>
+        <v>15.02228</v>
       </c>
       <c r="AL14" s="1">
-        <v>975.770000</v>
+        <v>975.77</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.997500</v>
+        <v>-87.997500000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>54090.976293</v>
@@ -3685,28 +4101,28 @@
         <v>15.025271</v>
       </c>
       <c r="AQ14" s="1">
-        <v>985.056000</v>
+        <v>985.05600000000004</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.120000</v>
+        <v>-103.12</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>54102.063367</v>
+        <v>54102.063367000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>15.028351</v>
+        <v>15.028351000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>996.500000</v>
+        <v>996.5</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.874000</v>
+        <v>-124.874</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>54112.706521</v>
@@ -3715,106 +4131,106 @@
         <v>15.031307</v>
       </c>
       <c r="BA14" s="1">
-        <v>1006.300000</v>
+        <v>1006.3</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.767000</v>
+        <v>-143.767</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>54123.648761</v>
+        <v>54123.648760999997</v>
       </c>
       <c r="BE14" s="1">
         <v>15.034347</v>
       </c>
       <c r="BF14" s="1">
-        <v>1052.180000</v>
+        <v>1052.18</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.092000</v>
+        <v>-229.09200000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>54134.550828</v>
+        <v>54134.550827999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>15.037375</v>
+        <v>15.037375000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1132.560000</v>
+        <v>1132.56</v>
       </c>
       <c r="BL14" s="1">
-        <v>-365.372000</v>
+        <v>-365.37200000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>54145.625005</v>
+        <v>54145.625005000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>15.040451</v>
+        <v>15.040450999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1265.000000</v>
+        <v>1265</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-575.291000</v>
+        <v>-575.29100000000005</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>54156.145684</v>
+        <v>54156.145684000003</v>
       </c>
       <c r="BT14" s="1">
         <v>15.043374</v>
       </c>
       <c r="BU14" s="1">
-        <v>1413.520000</v>
+        <v>1413.52</v>
       </c>
       <c r="BV14" s="1">
-        <v>-798.998000</v>
+        <v>-798.99800000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>54166.616194</v>
+        <v>54166.616194000002</v>
       </c>
       <c r="BY14" s="1">
         <v>15.046282</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1575.410000</v>
+        <v>1575.41</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1032.800000</v>
+        <v>-1032.8</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>54178.810839</v>
+        <v>54178.810838999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>15.049670</v>
+        <v>15.049670000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1985.600000</v>
+        <v>1985.6</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1578.790000</v>
+        <v>-1578.79</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>54008.126547</v>
       </c>
@@ -3822,118 +4238,118 @@
         <v>15.002257</v>
       </c>
       <c r="C15" s="1">
-        <v>904.252000</v>
+        <v>904.25199999999995</v>
       </c>
       <c r="D15" s="1">
-        <v>-192.616000</v>
+        <v>-192.61600000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>54018.194868</v>
+        <v>54018.194867999999</v>
       </c>
       <c r="G15" s="1">
-        <v>15.005054</v>
+        <v>15.005053999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>920.332000</v>
+        <v>920.33199999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-163.509000</v>
+        <v>-163.50899999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>54028.236839</v>
+        <v>54028.236838999997</v>
       </c>
       <c r="L15" s="1">
         <v>15.007844</v>
       </c>
       <c r="M15" s="1">
-        <v>942.307000</v>
+        <v>942.30700000000002</v>
       </c>
       <c r="N15" s="1">
-        <v>-117.833000</v>
+        <v>-117.833</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>54038.474302</v>
+        <v>54038.474302000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>15.010687</v>
+        <v>15.010687000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>948.909000</v>
+        <v>948.90899999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.911000</v>
+        <v>-102.911</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>54048.989488</v>
+        <v>54048.989487999999</v>
       </c>
       <c r="V15" s="1">
         <v>15.013608</v>
       </c>
       <c r="W15" s="1">
-        <v>955.463000</v>
+        <v>955.46299999999997</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.605800</v>
+        <v>-89.605800000000002</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>54059.525005</v>
+        <v>54059.525005000003</v>
       </c>
       <c r="AA15" s="1">
-        <v>15.016535</v>
+        <v>15.016534999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.787000</v>
+        <v>962.78700000000003</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.311700</v>
+        <v>-80.311700000000002</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>54070.024288</v>
+        <v>54070.024288000001</v>
       </c>
       <c r="AF15" s="1">
         <v>15.019451</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.859000</v>
+        <v>967.85900000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.052100</v>
+        <v>-80.052099999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>54080.907010</v>
+        <v>54080.907010000003</v>
       </c>
       <c r="AK15" s="1">
-        <v>15.022474</v>
+        <v>15.022474000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>975.754000</v>
+        <v>975.75400000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.997900</v>
+        <v>-87.997900000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>54091.696483</v>
@@ -3942,118 +4358,118 @@
         <v>15.025471</v>
       </c>
       <c r="AQ15" s="1">
-        <v>985.027000</v>
+        <v>985.02700000000004</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.127000</v>
+        <v>-103.127</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>54102.428421</v>
+        <v>54102.428420999997</v>
       </c>
       <c r="AU15" s="1">
         <v>15.028452</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.552000</v>
+        <v>996.55200000000002</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.885000</v>
+        <v>-124.88500000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>54113.085463</v>
+        <v>54113.085463000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>15.031413</v>
+        <v>15.031413000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1006.270000</v>
+        <v>1006.27</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.778000</v>
+        <v>-143.77799999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>54124.012330</v>
+        <v>54124.012329999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>15.034448</v>
+        <v>15.034447999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1052.180000</v>
+        <v>1052.18</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.083000</v>
+        <v>-229.083</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>54135.231867</v>
+        <v>54135.231867000002</v>
       </c>
       <c r="BJ15" s="1">
         <v>15.037564</v>
       </c>
       <c r="BK15" s="1">
-        <v>1132.620000</v>
+        <v>1132.6199999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-365.332000</v>
+        <v>-365.33199999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>54145.735148</v>
       </c>
       <c r="BO15" s="1">
-        <v>15.040482</v>
+        <v>15.040482000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1265.020000</v>
+        <v>1265.02</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-575.270000</v>
+        <v>-575.27</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>54156.266212</v>
+        <v>54156.266212000002</v>
       </c>
       <c r="BT15" s="1">
         <v>15.043407</v>
       </c>
       <c r="BU15" s="1">
-        <v>1413.520000</v>
+        <v>1413.52</v>
       </c>
       <c r="BV15" s="1">
-        <v>-799.016000</v>
+        <v>-799.01599999999996</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>54167.043744</v>
+        <v>54167.043744000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>15.046401</v>
+        <v>15.046400999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1575.430000</v>
+        <v>1575.43</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1032.690000</v>
+        <v>-1032.69</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>54179.346524</v>
@@ -4062,165 +4478,165 @@
         <v>15.049818</v>
       </c>
       <c r="CE15" s="1">
-        <v>1983.960000</v>
+        <v>1983.96</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1577.230000</v>
+        <v>-1577.23</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>54008.414721</v>
+        <v>54008.414721000001</v>
       </c>
       <c r="B16" s="1">
-        <v>15.002337</v>
+        <v>15.002337000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>904.187000</v>
+        <v>904.18700000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-192.609000</v>
+        <v>-192.60900000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>54018.467947</v>
+        <v>54018.467946999997</v>
       </c>
       <c r="G16" s="1">
-        <v>15.005130</v>
+        <v>15.005129999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>920.976000</v>
+        <v>920.976</v>
       </c>
       <c r="I16" s="1">
-        <v>-163.766000</v>
+        <v>-163.76599999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>54028.583542</v>
       </c>
       <c r="L16" s="1">
-        <v>15.007940</v>
+        <v>15.00794</v>
       </c>
       <c r="M16" s="1">
-        <v>942.539000</v>
+        <v>942.53899999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-117.923000</v>
+        <v>-117.923</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>54038.819481</v>
+        <v>54038.819480999999</v>
       </c>
       <c r="Q16" s="1">
         <v>15.010783</v>
       </c>
       <c r="R16" s="1">
-        <v>948.913000</v>
+        <v>948.91300000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.933000</v>
+        <v>-102.93300000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>54049.332685</v>
+        <v>54049.332685000001</v>
       </c>
       <c r="V16" s="1">
-        <v>15.013704</v>
+        <v>15.013704000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>955.466000</v>
+        <v>955.46600000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.659100</v>
+        <v>-89.659099999999995</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>54060.222381</v>
       </c>
       <c r="AA16" s="1">
-        <v>15.016728</v>
+        <v>15.016728000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.748000</v>
+        <v>962.74800000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.303100</v>
+        <v>-80.303100000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>54070.709759</v>
+        <v>54070.709758999998</v>
       </c>
       <c r="AF16" s="1">
-        <v>15.019642</v>
+        <v>15.019641999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.813000</v>
+        <v>967.81299999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.027800</v>
+        <v>-80.027799999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>54081.254740</v>
+        <v>54081.254739999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>15.022571</v>
+        <v>15.022570999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>975.770000</v>
+        <v>975.77</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.990700</v>
+        <v>-87.990700000000004</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>54092.084393</v>
+        <v>54092.084392999997</v>
       </c>
       <c r="AP16" s="1">
         <v>15.025579</v>
       </c>
       <c r="AQ16" s="1">
-        <v>985.040000</v>
+        <v>985.04</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.128000</v>
+        <v>-103.128</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>54102.790037</v>
+        <v>54102.790036999999</v>
       </c>
       <c r="AU16" s="1">
         <v>15.028553</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.533000</v>
+        <v>996.53300000000002</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.900000</v>
+        <v>-124.9</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>54113.756081</v>
@@ -4229,572 +4645,572 @@
         <v>15.031599</v>
       </c>
       <c r="BA16" s="1">
-        <v>1006.270000</v>
+        <v>1006.27</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.768000</v>
+        <v>-143.768</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>54124.683453</v>
+        <v>54124.683452999998</v>
       </c>
       <c r="BE16" s="1">
         <v>15.034634</v>
       </c>
       <c r="BF16" s="1">
-        <v>1052.150000</v>
+        <v>1052.1500000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.077000</v>
+        <v>-229.077</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>54135.340707</v>
+        <v>54135.340707000003</v>
       </c>
       <c r="BJ16" s="1">
         <v>15.037595</v>
       </c>
       <c r="BK16" s="1">
-        <v>1132.600000</v>
+        <v>1132.5999999999999</v>
       </c>
       <c r="BL16" s="1">
-        <v>-365.351000</v>
+        <v>-365.351</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>54146.153275</v>
+        <v>54146.153274999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>15.040598</v>
+        <v>15.040597999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1265.050000</v>
+        <v>1265.05</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-575.243000</v>
+        <v>-575.24300000000005</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>54156.705629</v>
+        <v>54156.705628999996</v>
       </c>
       <c r="BT16" s="1">
-        <v>15.043529</v>
+        <v>15.043528999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1413.500000</v>
+        <v>1413.5</v>
       </c>
       <c r="BV16" s="1">
-        <v>-798.946000</v>
+        <v>-798.94600000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>54167.459426</v>
+        <v>54167.459426000001</v>
       </c>
       <c r="BY16" s="1">
         <v>15.046517</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1575.450000</v>
+        <v>1575.45</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1032.760000</v>
+        <v>-1032.76</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>54179.952126</v>
+        <v>54179.952125999996</v>
       </c>
       <c r="CD16" s="1">
         <v>15.049987</v>
       </c>
       <c r="CE16" s="1">
-        <v>1985.510000</v>
+        <v>1985.51</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1577.850000</v>
+        <v>-1577.85</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>54008.756465</v>
+        <v>54008.756464999999</v>
       </c>
       <c r="B17" s="1">
-        <v>15.002432</v>
+        <v>15.002432000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>904.270000</v>
+        <v>904.27</v>
       </c>
       <c r="D17" s="1">
-        <v>-192.590000</v>
+        <v>-192.59</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>54018.812851</v>
+        <v>54018.812851000002</v>
       </c>
       <c r="G17" s="1">
         <v>15.005226</v>
       </c>
       <c r="H17" s="1">
-        <v>920.600000</v>
+        <v>920.6</v>
       </c>
       <c r="I17" s="1">
-        <v>-163.432000</v>
+        <v>-163.43199999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>54028.928294</v>
+        <v>54028.928293999998</v>
       </c>
       <c r="L17" s="1">
-        <v>15.008036</v>
+        <v>15.008036000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>942.352000</v>
+        <v>942.35199999999998</v>
       </c>
       <c r="N17" s="1">
-        <v>-117.788000</v>
+        <v>-117.788</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>54039.171643</v>
+        <v>54039.171643000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>15.010881</v>
+        <v>15.010880999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>948.859000</v>
+        <v>948.85900000000004</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.976000</v>
+        <v>-102.976</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>54050.019147</v>
+        <v>54050.019146999999</v>
       </c>
       <c r="V17" s="1">
-        <v>15.013894</v>
+        <v>15.013894000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>955.360000</v>
+        <v>955.36</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.626600</v>
+        <v>-89.626599999999996</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>54060.572030</v>
+        <v>54060.572030000003</v>
       </c>
       <c r="AA17" s="1">
         <v>15.016826</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.695000</v>
+        <v>962.69500000000005</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.280900</v>
+        <v>-80.280900000000003</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>54071.054480</v>
+        <v>54071.054479999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>15.019737</v>
+        <v>15.019736999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.864000</v>
+        <v>967.86400000000003</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.092100</v>
+        <v>-80.092100000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>54081.600945</v>
+        <v>54081.600944999998</v>
       </c>
       <c r="AK17" s="1">
         <v>15.022667</v>
       </c>
       <c r="AL17" s="1">
-        <v>975.754000</v>
+        <v>975.75400000000002</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.992700</v>
+        <v>-87.992699999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>54092.756434</v>
+        <v>54092.756434000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>15.025766</v>
+        <v>15.025766000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>985.018000</v>
+        <v>985.01800000000003</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.142000</v>
+        <v>-103.142</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>54103.465587</v>
+        <v>54103.465586999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>15.028740</v>
+        <v>15.028740000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>996.516000</v>
+        <v>996.51599999999996</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.887000</v>
+        <v>-124.887</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>54114.171206</v>
+        <v>54114.171205999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>15.031714</v>
+        <v>15.031713999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1006.280000</v>
+        <v>1006.28</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.765000</v>
+        <v>-143.76499999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>54125.127831</v>
+        <v>54125.127830999998</v>
       </c>
       <c r="BE17" s="1">
         <v>15.034758</v>
       </c>
       <c r="BF17" s="1">
-        <v>1052.170000</v>
+        <v>1052.17</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.084000</v>
+        <v>-229.084</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>54135.705049</v>
+        <v>54135.705048999997</v>
       </c>
       <c r="BJ17" s="1">
         <v>15.037696</v>
       </c>
       <c r="BK17" s="1">
-        <v>1132.590000</v>
+        <v>1132.5899999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-365.336000</v>
+        <v>-365.33600000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>54146.550089</v>
+        <v>54146.550088999997</v>
       </c>
       <c r="BO17" s="1">
         <v>15.040708</v>
       </c>
       <c r="BP17" s="1">
-        <v>1264.990000</v>
+        <v>1264.99</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-575.284000</v>
+        <v>-575.28399999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>54157.131693</v>
+        <v>54157.131693000003</v>
       </c>
       <c r="BT17" s="1">
-        <v>15.043648</v>
+        <v>15.043647999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1413.470000</v>
+        <v>1413.47</v>
       </c>
       <c r="BV17" s="1">
-        <v>-799.068000</v>
+        <v>-799.06799999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>54167.912766</v>
+        <v>54167.912766000001</v>
       </c>
       <c r="BY17" s="1">
         <v>15.046642</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1575.360000</v>
+        <v>1575.36</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1032.650000</v>
+        <v>-1032.6500000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>54180.425346</v>
+        <v>54180.425346000004</v>
       </c>
       <c r="CD17" s="1">
-        <v>15.050118</v>
+        <v>15.050117999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1985.530000</v>
+        <v>1985.53</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1577.970000</v>
+        <v>-1577.97</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>54009.102033</v>
+        <v>54009.102033000003</v>
       </c>
       <c r="B18" s="1">
         <v>15.002528</v>
       </c>
       <c r="C18" s="1">
-        <v>904.128000</v>
+        <v>904.12800000000004</v>
       </c>
       <c r="D18" s="1">
-        <v>-192.632000</v>
+        <v>-192.63200000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>54019.160051</v>
+        <v>54019.160050999999</v>
       </c>
       <c r="G18" s="1">
         <v>15.005322</v>
       </c>
       <c r="H18" s="1">
-        <v>920.432000</v>
+        <v>920.43200000000002</v>
       </c>
       <c r="I18" s="1">
-        <v>-163.528000</v>
+        <v>-163.52799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>54029.624150</v>
+        <v>54029.624150000003</v>
       </c>
       <c r="L18" s="1">
         <v>15.008229</v>
       </c>
       <c r="M18" s="1">
-        <v>942.427000</v>
+        <v>942.42700000000002</v>
       </c>
       <c r="N18" s="1">
-        <v>-117.827000</v>
+        <v>-117.827</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>54039.868023</v>
+        <v>54039.868023000003</v>
       </c>
       <c r="Q18" s="1">
-        <v>15.011074</v>
+        <v>15.011074000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>948.900000</v>
+        <v>948.9</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.893000</v>
+        <v>-102.893</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>54050.361913</v>
+        <v>54050.361913000001</v>
       </c>
       <c r="V18" s="1">
         <v>15.013989</v>
       </c>
       <c r="W18" s="1">
-        <v>955.431000</v>
+        <v>955.43100000000004</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.540500</v>
+        <v>-89.540499999999994</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>54060.920747</v>
+        <v>54060.920746999996</v>
       </c>
       <c r="AA18" s="1">
-        <v>15.016922</v>
+        <v>15.016921999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.798000</v>
+        <v>962.798</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.322500</v>
+        <v>-80.322500000000005</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>54071.398206</v>
+        <v>54071.398205999998</v>
       </c>
       <c r="AF18" s="1">
         <v>15.019833</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.853000</v>
+        <v>967.85299999999995</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.993800</v>
+        <v>-79.993799999999993</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>54082.267039</v>
+        <v>54082.267038999998</v>
       </c>
       <c r="AK18" s="1">
         <v>15.022852</v>
       </c>
       <c r="AL18" s="1">
-        <v>975.785000</v>
+        <v>975.78499999999997</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.996400</v>
+        <v>-87.996399999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>54093.169602</v>
+        <v>54093.169602000002</v>
       </c>
       <c r="AP18" s="1">
-        <v>15.025880</v>
+        <v>15.025880000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>985.033000</v>
+        <v>985.03300000000002</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.122000</v>
+        <v>-103.122</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>54103.884676</v>
+        <v>54103.884676000001</v>
       </c>
       <c r="AU18" s="1">
         <v>15.028857</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.530000</v>
+        <v>996.53</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.892000</v>
+        <v>-124.892</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>54114.546709</v>
+        <v>54114.546709000002</v>
       </c>
       <c r="AZ18" s="1">
         <v>15.031819</v>
       </c>
       <c r="BA18" s="1">
-        <v>1006.270000</v>
+        <v>1006.27</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.783000</v>
+        <v>-143.78299999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>54125.487926</v>
+        <v>54125.487926000002</v>
       </c>
       <c r="BE18" s="1">
         <v>15.034858</v>
       </c>
       <c r="BF18" s="1">
-        <v>1052.180000</v>
+        <v>1052.18</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.095000</v>
+        <v>-229.095</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>54136.077016</v>
+        <v>54136.077016000003</v>
       </c>
       <c r="BJ18" s="1">
         <v>15.037799</v>
       </c>
       <c r="BK18" s="1">
-        <v>1132.570000</v>
+        <v>1132.57</v>
       </c>
       <c r="BL18" s="1">
-        <v>-365.291000</v>
+        <v>-365.291</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>54146.972634</v>
+        <v>54146.972633999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>15.040826</v>
+        <v>15.040825999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1265.000000</v>
+        <v>1265</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-575.292000</v>
+        <v>-575.29200000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>54157.546876</v>
@@ -4803,60 +5219,60 @@
         <v>15.043763</v>
       </c>
       <c r="BU18" s="1">
-        <v>1413.470000</v>
+        <v>1413.47</v>
       </c>
       <c r="BV18" s="1">
-        <v>-798.986000</v>
+        <v>-798.98599999999999</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>54168.363102</v>
+        <v>54168.363102000003</v>
       </c>
       <c r="BY18" s="1">
         <v>15.046768</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1575.440000</v>
+        <v>1575.44</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1032.710000</v>
+        <v>-1032.71</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>54180.945154</v>
+        <v>54180.945154000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>15.050263</v>
+        <v>15.050262999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1984.050000</v>
+        <v>1984.05</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1577.020000</v>
+        <v>-1577.02</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>54009.782687</v>
+        <v>54009.782686999999</v>
       </c>
       <c r="B19" s="1">
-        <v>15.002717</v>
+        <v>15.002717000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>904.229000</v>
+        <v>904.22900000000004</v>
       </c>
       <c r="D19" s="1">
-        <v>-192.728000</v>
+        <v>-192.72800000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>54019.852003</v>
@@ -4865,193 +5281,193 @@
         <v>15.005514</v>
       </c>
       <c r="H19" s="1">
-        <v>920.446000</v>
+        <v>920.44600000000003</v>
       </c>
       <c r="I19" s="1">
-        <v>-163.741000</v>
+        <v>-163.74100000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>54029.967909</v>
+        <v>54029.967908999999</v>
       </c>
       <c r="L19" s="1">
         <v>15.008324</v>
       </c>
       <c r="M19" s="1">
-        <v>942.403000</v>
+        <v>942.40300000000002</v>
       </c>
       <c r="N19" s="1">
-        <v>-117.704000</v>
+        <v>-117.70399999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>54040.216712</v>
+        <v>54040.216712000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>15.011171</v>
+        <v>15.011170999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>948.916000</v>
+        <v>948.91600000000005</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.919000</v>
+        <v>-102.919</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>54050.706105</v>
+        <v>54050.706104999997</v>
       </c>
       <c r="V19" s="1">
         <v>15.014085</v>
       </c>
       <c r="W19" s="1">
-        <v>955.502000</v>
+        <v>955.50199999999995</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.486700</v>
+        <v>-89.486699999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>54061.586347</v>
+        <v>54061.586346999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>15.017107</v>
+        <v>15.017106999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.688000</v>
+        <v>962.68799999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.363400</v>
+        <v>-80.363399999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>54072.052461</v>
+        <v>54072.052460999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>15.020015</v>
+        <v>15.020015000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.793000</v>
+        <v>967.79300000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.138900</v>
+        <v>-80.138900000000007</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>54082.660897</v>
+        <v>54082.660897000002</v>
       </c>
       <c r="AK19" s="1">
         <v>15.022961</v>
       </c>
       <c r="AL19" s="1">
-        <v>975.753000</v>
+        <v>975.75300000000004</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.979200</v>
+        <v>-87.979200000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>54093.547553</v>
+        <v>54093.547552999997</v>
       </c>
       <c r="AP19" s="1">
         <v>15.025985</v>
       </c>
       <c r="AQ19" s="1">
-        <v>985.036000</v>
+        <v>985.03599999999994</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.141000</v>
+        <v>-103.14100000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>54104.250722</v>
+        <v>54104.250721999997</v>
       </c>
       <c r="AU19" s="1">
         <v>15.028959</v>
       </c>
       <c r="AV19" s="1">
-        <v>996.530000</v>
+        <v>996.53</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.882000</v>
+        <v>-124.88200000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>54114.925126</v>
+        <v>54114.925126000002</v>
       </c>
       <c r="AZ19" s="1">
         <v>15.031924</v>
       </c>
       <c r="BA19" s="1">
-        <v>1006.250000</v>
+        <v>1006.25</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.769000</v>
+        <v>-143.76900000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>54125.848023</v>
+        <v>54125.848022999999</v>
       </c>
       <c r="BE19" s="1">
         <v>15.034958</v>
       </c>
       <c r="BF19" s="1">
-        <v>1052.180000</v>
+        <v>1052.18</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.088000</v>
+        <v>-229.08799999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>54136.495641</v>
+        <v>54136.495641000001</v>
       </c>
       <c r="BJ19" s="1">
         <v>15.037915</v>
       </c>
       <c r="BK19" s="1">
-        <v>1132.590000</v>
+        <v>1132.5899999999999</v>
       </c>
       <c r="BL19" s="1">
-        <v>-365.354000</v>
+        <v>-365.35399999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>54147.368442</v>
+        <v>54147.368441999999</v>
       </c>
       <c r="BO19" s="1">
         <v>15.040936</v>
       </c>
       <c r="BP19" s="1">
-        <v>1264.970000</v>
+        <v>1264.97</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-575.255000</v>
+        <v>-575.255</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>54157.973931</v>
@@ -5060,542 +5476,542 @@
         <v>15.043882</v>
       </c>
       <c r="BU19" s="1">
-        <v>1413.470000</v>
+        <v>1413.47</v>
       </c>
       <c r="BV19" s="1">
-        <v>-798.963000</v>
+        <v>-798.96299999999997</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>54168.786190</v>
+        <v>54168.786189999999</v>
       </c>
       <c r="BY19" s="1">
         <v>15.046885</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1575.540000</v>
+        <v>1575.54</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1032.660000</v>
+        <v>-1032.6600000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>54181.461452</v>
+        <v>54181.461452000003</v>
       </c>
       <c r="CD19" s="1">
-        <v>15.050406</v>
+        <v>15.050406000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1983.650000</v>
+        <v>1983.65</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1578.720000</v>
+        <v>-1578.72</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>54010.126447</v>
+        <v>54010.126447000002</v>
       </c>
       <c r="B20" s="1">
         <v>15.002813</v>
       </c>
       <c r="C20" s="1">
-        <v>904.216000</v>
+        <v>904.21600000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-192.688000</v>
+        <v>-192.68799999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>54020.194242</v>
+        <v>54020.194241999998</v>
       </c>
       <c r="G20" s="1">
-        <v>15.005610</v>
+        <v>15.005610000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>920.219000</v>
+        <v>920.21900000000005</v>
       </c>
       <c r="I20" s="1">
-        <v>-163.313000</v>
+        <v>-163.31299999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>54030.317557</v>
+        <v>54030.317557000002</v>
       </c>
       <c r="L20" s="1">
-        <v>15.008422</v>
+        <v>15.008421999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>942.248000</v>
+        <v>942.24800000000005</v>
       </c>
       <c r="N20" s="1">
-        <v>-117.864000</v>
+        <v>-117.864</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>54040.889286</v>
+        <v>54040.889285999998</v>
       </c>
       <c r="Q20" s="1">
         <v>15.011358</v>
       </c>
       <c r="R20" s="1">
-        <v>948.950000</v>
+        <v>948.95</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.974000</v>
+        <v>-102.974</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>54051.357849</v>
       </c>
       <c r="V20" s="1">
-        <v>15.014266</v>
+        <v>15.014265999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>955.360000</v>
+        <v>955.36</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.458000</v>
+        <v>-89.457999999999998</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>54061.966813</v>
+        <v>54061.966812999999</v>
       </c>
       <c r="AA20" s="1">
         <v>15.017213</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.776000</v>
+        <v>962.77599999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.318300</v>
+        <v>-80.318299999999994</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>54072.426413</v>
+        <v>54072.426413000001</v>
       </c>
       <c r="AF20" s="1">
         <v>15.020118</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.882000</v>
+        <v>967.88199999999995</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.968600</v>
+        <v>-79.968599999999995</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>54082.999134</v>
+        <v>54082.999133999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>15.023055</v>
+        <v>15.023054999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>975.786000</v>
+        <v>975.78599999999994</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.009000</v>
+        <v>-88.009</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>54093.908640</v>
+        <v>54093.908640000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>15.026086</v>
+        <v>15.026085999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>985.030000</v>
+        <v>985.03</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.127000</v>
+        <v>-103.127</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>54104.615778</v>
+        <v>54104.615777999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>15.029060</v>
+        <v>15.029059999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.550000</v>
+        <v>996.55</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.888000</v>
+        <v>-124.88800000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>54115.340277</v>
+        <v>54115.340277000003</v>
       </c>
       <c r="AZ20" s="1">
-        <v>15.032039</v>
+        <v>15.032038999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1006.280000</v>
+        <v>1006.28</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.798000</v>
+        <v>-143.798</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>54126.262183</v>
+        <v>54126.262182999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>15.035073</v>
+        <v>15.035073000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1052.180000</v>
+        <v>1052.18</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.079000</v>
+        <v>-229.07900000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>54136.828953</v>
+        <v>54136.828952999997</v>
       </c>
       <c r="BJ20" s="1">
         <v>15.038008</v>
       </c>
       <c r="BK20" s="1">
-        <v>1132.570000</v>
+        <v>1132.57</v>
       </c>
       <c r="BL20" s="1">
-        <v>-365.321000</v>
+        <v>-365.32100000000003</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>54147.789688</v>
+        <v>54147.789687999997</v>
       </c>
       <c r="BO20" s="1">
         <v>15.041053</v>
       </c>
       <c r="BP20" s="1">
-        <v>1265.020000</v>
+        <v>1265.02</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-575.225000</v>
+        <v>-575.22500000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>54158.399003</v>
+        <v>54158.399002999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>15.044000</v>
+        <v>15.044</v>
       </c>
       <c r="BU20" s="1">
-        <v>1413.480000</v>
+        <v>1413.48</v>
       </c>
       <c r="BV20" s="1">
-        <v>-798.915000</v>
+        <v>-798.91499999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>54169.207294</v>
       </c>
       <c r="BY20" s="1">
-        <v>15.047002</v>
+        <v>15.047002000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1575.450000</v>
+        <v>1575.45</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1032.700000</v>
+        <v>-1032.7</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>54181.982254</v>
+        <v>54181.982254000002</v>
       </c>
       <c r="CD20" s="1">
         <v>15.050551</v>
       </c>
       <c r="CE20" s="1">
-        <v>1984.760000</v>
+        <v>1984.76</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1579.000000</v>
+        <v>-1579</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>54010.468160</v>
+        <v>54010.468159999997</v>
       </c>
       <c r="B21" s="1">
         <v>15.002908</v>
       </c>
       <c r="C21" s="1">
-        <v>904.195000</v>
+        <v>904.19500000000005</v>
       </c>
       <c r="D21" s="1">
-        <v>-192.486000</v>
+        <v>-192.48599999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>54020.540915</v>
+        <v>54020.540914999998</v>
       </c>
       <c r="G21" s="1">
         <v>15.005706</v>
       </c>
       <c r="H21" s="1">
-        <v>920.717000</v>
+        <v>920.71699999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-163.787000</v>
+        <v>-163.78700000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>54030.971283</v>
+        <v>54030.971282999999</v>
       </c>
       <c r="L21" s="1">
-        <v>15.008603</v>
+        <v>15.008603000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>942.342000</v>
+        <v>942.34199999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-117.811000</v>
+        <v>-117.81100000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>54041.272726</v>
+        <v>54041.272726000003</v>
       </c>
       <c r="Q21" s="1">
-        <v>15.011465</v>
+        <v>15.011464999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>948.916000</v>
+        <v>948.91600000000005</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.960000</v>
+        <v>-102.96</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>54051.737288</v>
+        <v>54051.737287999997</v>
       </c>
       <c r="V21" s="1">
-        <v>15.014371</v>
+        <v>15.014371000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>955.410000</v>
+        <v>955.41</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.425100</v>
+        <v>-89.4251</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>54062.315466</v>
       </c>
       <c r="AA21" s="1">
-        <v>15.017310</v>
+        <v>15.01731</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.821000</v>
+        <v>962.82100000000003</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.400900</v>
+        <v>-80.400899999999993</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>54072.771132</v>
+        <v>54072.771132000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>15.020214</v>
+        <v>15.020213999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.770000</v>
+        <v>967.77</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.067800</v>
+        <v>-80.067800000000005</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>54083.348319</v>
+        <v>54083.348318999997</v>
       </c>
       <c r="AK21" s="1">
         <v>15.023152</v>
       </c>
       <c r="AL21" s="1">
-        <v>975.764000</v>
+        <v>975.76400000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.974500</v>
+        <v>-87.974500000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>54094.331728</v>
+        <v>54094.331727999997</v>
       </c>
       <c r="AP21" s="1">
-        <v>15.026203</v>
+        <v>15.026203000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>985.046000</v>
+        <v>985.04600000000005</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.115000</v>
+        <v>-103.11499999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>54105.032915</v>
+        <v>54105.032915000003</v>
       </c>
       <c r="AU21" s="1">
         <v>15.029176</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.526000</v>
+        <v>996.52599999999995</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.888000</v>
+        <v>-124.88800000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>54115.643373</v>
+        <v>54115.643372999999</v>
       </c>
       <c r="AZ21" s="1">
         <v>15.032123</v>
       </c>
       <c r="BA21" s="1">
-        <v>1006.240000</v>
+        <v>1006.24</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.803000</v>
+        <v>-143.803</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>54126.568250</v>
+        <v>54126.568249999997</v>
       </c>
       <c r="BE21" s="1">
-        <v>15.035158</v>
+        <v>15.035157999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1052.170000</v>
+        <v>1052.17</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.077000</v>
+        <v>-229.077</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>54137.226743</v>
+        <v>54137.226742999999</v>
       </c>
       <c r="BJ21" s="1">
         <v>15.038119</v>
       </c>
       <c r="BK21" s="1">
-        <v>1132.590000</v>
+        <v>1132.5899999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-365.353000</v>
+        <v>-365.35300000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>54148.186842</v>
+        <v>54148.186842000003</v>
       </c>
       <c r="BO21" s="1">
-        <v>15.041163</v>
+        <v>15.041162999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1265.000000</v>
+        <v>1265</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-575.262000</v>
+        <v>-575.26199999999994</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>54158.814124</v>
+        <v>54158.814123999997</v>
       </c>
       <c r="BT21" s="1">
         <v>15.044115</v>
       </c>
       <c r="BU21" s="1">
-        <v>1413.470000</v>
+        <v>1413.47</v>
       </c>
       <c r="BV21" s="1">
-        <v>-799.019000</v>
+        <v>-799.01900000000001</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>54169.633361</v>
       </c>
       <c r="BY21" s="1">
-        <v>15.047120</v>
+        <v>15.04712</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1575.380000</v>
+        <v>1575.38</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1032.570000</v>
+        <v>-1032.57</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>54182.499613</v>
@@ -5604,30 +6020,30 @@
         <v>15.050694</v>
       </c>
       <c r="CE21" s="1">
-        <v>1984.940000</v>
+        <v>1984.94</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1578.870000</v>
+        <v>-1578.87</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>54011.121422</v>
+        <v>54011.121421999997</v>
       </c>
       <c r="B22" s="1">
-        <v>15.003089</v>
+        <v>15.003088999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>904.215000</v>
+        <v>904.21500000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>-192.556000</v>
+        <v>-192.55600000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>54021.206048</v>
@@ -5636,43 +6052,43 @@
         <v>15.005891</v>
       </c>
       <c r="H22" s="1">
-        <v>920.230000</v>
+        <v>920.23</v>
       </c>
       <c r="I22" s="1">
-        <v>-163.463000</v>
+        <v>-163.46299999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>54031.352708</v>
+        <v>54031.352707999999</v>
       </c>
       <c r="L22" s="1">
         <v>15.008709</v>
       </c>
       <c r="M22" s="1">
-        <v>942.350000</v>
+        <v>942.35</v>
       </c>
       <c r="N22" s="1">
-        <v>-117.920000</v>
+        <v>-117.92</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>54041.622902</v>
+        <v>54041.622902000003</v>
       </c>
       <c r="Q22" s="1">
         <v>15.011562</v>
       </c>
       <c r="R22" s="1">
-        <v>948.863000</v>
+        <v>948.86300000000006</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.924000</v>
+        <v>-102.92400000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>54052.071097</v>
@@ -5681,255 +6097,255 @@
         <v>15.014464</v>
       </c>
       <c r="W22" s="1">
-        <v>955.469000</v>
+        <v>955.46900000000005</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.599700</v>
+        <v>-89.599699999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>54062.663162</v>
+        <v>54062.663161999997</v>
       </c>
       <c r="AA22" s="1">
-        <v>15.017406</v>
+        <v>15.017405999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.772000</v>
+        <v>962.77200000000005</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.301000</v>
+        <v>-80.301000000000002</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>54073.113372</v>
       </c>
       <c r="AF22" s="1">
-        <v>15.020309</v>
+        <v>15.020308999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.855000</v>
+        <v>967.85500000000002</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.031700</v>
+        <v>-80.031700000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>54083.774382</v>
+        <v>54083.774382000003</v>
       </c>
       <c r="AK22" s="1">
-        <v>15.023271</v>
+        <v>15.023270999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>975.760000</v>
+        <v>975.76</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.003200</v>
+        <v>-88.003200000000007</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>54094.628336</v>
+        <v>54094.628336000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>15.026286</v>
+        <v>15.026286000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>985.027000</v>
+        <v>985.02700000000004</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.121000</v>
+        <v>-103.121</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>54105.343412</v>
+        <v>54105.343412000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>15.029262</v>
+        <v>15.029261999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>996.525000</v>
+        <v>996.52499999999998</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.885000</v>
+        <v>-124.88500000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>54116.002931</v>
+        <v>54116.002931000003</v>
       </c>
       <c r="AZ22" s="1">
         <v>15.032223</v>
       </c>
       <c r="BA22" s="1">
-        <v>1006.270000</v>
+        <v>1006.27</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.788000</v>
+        <v>-143.78800000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>54126.934757</v>
+        <v>54126.934757000003</v>
       </c>
       <c r="BE22" s="1">
-        <v>15.035260</v>
+        <v>15.035259999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1052.180000</v>
+        <v>1052.18</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.080000</v>
+        <v>-229.08</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>54137.605223</v>
+        <v>54137.605222999999</v>
       </c>
       <c r="BJ22" s="1">
         <v>15.038224</v>
       </c>
       <c r="BK22" s="1">
-        <v>1132.590000</v>
+        <v>1132.5899999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-365.341000</v>
+        <v>-365.34100000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>54148.611949</v>
+        <v>54148.611948999998</v>
       </c>
       <c r="BO22" s="1">
         <v>15.041281</v>
       </c>
       <c r="BP22" s="1">
-        <v>1265.040000</v>
+        <v>1265.04</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-575.271000</v>
+        <v>-575.27099999999996</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>54159.242698</v>
+        <v>54159.242698000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>15.044234</v>
+        <v>15.044233999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1413.480000</v>
+        <v>1413.48</v>
       </c>
       <c r="BV22" s="1">
-        <v>-798.908000</v>
+        <v>-798.90800000000002</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>54170.048044</v>
+        <v>54170.048044000003</v>
       </c>
       <c r="BY22" s="1">
         <v>15.047236</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1575.520000</v>
+        <v>1575.52</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1032.860000</v>
+        <v>-1032.8599999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>54183.050171</v>
+        <v>54183.050171000003</v>
       </c>
       <c r="CD22" s="1">
-        <v>15.050847</v>
+        <v>15.050846999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1983.870000</v>
+        <v>1983.87</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1579.350000</v>
+        <v>-1579.35</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>54011.492397</v>
+        <v>54011.492397000002</v>
       </c>
       <c r="B23" s="1">
         <v>15.003192</v>
       </c>
       <c r="C23" s="1">
-        <v>904.082000</v>
+        <v>904.08199999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-192.940000</v>
+        <v>-192.94</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>54021.577093</v>
       </c>
       <c r="G23" s="1">
-        <v>15.005994</v>
+        <v>15.005993999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>920.176000</v>
+        <v>920.17600000000004</v>
       </c>
       <c r="I23" s="1">
-        <v>-163.349000</v>
+        <v>-163.34899999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>54031.694980</v>
+        <v>54031.69498</v>
       </c>
       <c r="L23" s="1">
         <v>15.008804</v>
       </c>
       <c r="M23" s="1">
-        <v>942.307000</v>
+        <v>942.30700000000002</v>
       </c>
       <c r="N23" s="1">
-        <v>-117.830000</v>
+        <v>-117.83</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>54041.972551</v>
+        <v>54041.972550999999</v>
       </c>
       <c r="Q23" s="1">
         <v>15.011659</v>
       </c>
       <c r="R23" s="1">
-        <v>948.892000</v>
+        <v>948.89200000000005</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.945000</v>
+        <v>-102.94499999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>54052.421767</v>
@@ -5938,88 +6354,88 @@
         <v>15.014562</v>
       </c>
       <c r="W23" s="1">
-        <v>955.330000</v>
+        <v>955.33</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.509600</v>
+        <v>-89.509600000000006</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>54063.082283</v>
+        <v>54063.082283000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>15.017523</v>
+        <v>15.017523000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.708000</v>
+        <v>962.70799999999997</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.439500</v>
+        <v>-80.439499999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>54073.544432</v>
+        <v>54073.544432000002</v>
       </c>
       <c r="AF23" s="1">
         <v>15.020429</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.881000</v>
+        <v>967.88099999999997</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.134200</v>
+        <v>-80.134200000000007</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>54084.053134</v>
+        <v>54084.053134000002</v>
       </c>
       <c r="AK23" s="1">
         <v>15.023348</v>
       </c>
       <c r="AL23" s="1">
-        <v>975.767000</v>
+        <v>975.76700000000005</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.010200</v>
+        <v>-88.010199999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>54094.988432</v>
+        <v>54094.988431999998</v>
       </c>
       <c r="AP23" s="1">
         <v>15.026386</v>
       </c>
       <c r="AQ23" s="1">
-        <v>985.056000</v>
+        <v>985.05600000000004</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.118000</v>
+        <v>-103.11799999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>54105.708961</v>
+        <v>54105.708960999997</v>
       </c>
       <c r="AU23" s="1">
-        <v>15.029364</v>
+        <v>15.029363999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>996.537000</v>
+        <v>996.53700000000003</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.867000</v>
+        <v>-124.867</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>54116.363524</v>
@@ -6028,150 +6444,150 @@
         <v>15.032323</v>
       </c>
       <c r="BA23" s="1">
-        <v>1006.260000</v>
+        <v>1006.26</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.774000</v>
+        <v>-143.774</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>54127.653957</v>
+        <v>54127.653957000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>15.035459</v>
+        <v>15.035458999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1052.190000</v>
+        <v>1052.19</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.096000</v>
+        <v>-229.096</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>54138.350711</v>
+        <v>54138.350710999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>15.038431</v>
+        <v>15.038430999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1132.560000</v>
+        <v>1132.56</v>
       </c>
       <c r="BL23" s="1">
-        <v>-365.305000</v>
+        <v>-365.30500000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>54149.004282</v>
+        <v>54149.004282000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>15.041390</v>
+        <v>15.04139</v>
       </c>
       <c r="BP23" s="1">
-        <v>1265.020000</v>
+        <v>1265.02</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-575.248000</v>
+        <v>-575.24800000000005</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>54159.672738</v>
+        <v>54159.672738000001</v>
       </c>
       <c r="BT23" s="1">
         <v>15.044354</v>
       </c>
       <c r="BU23" s="1">
-        <v>1413.410000</v>
+        <v>1413.41</v>
       </c>
       <c r="BV23" s="1">
-        <v>-798.963000</v>
+        <v>-798.96299999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>54170.503366</v>
+        <v>54170.503365999997</v>
       </c>
       <c r="BY23" s="1">
         <v>15.047362</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1575.460000</v>
+        <v>1575.46</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1032.800000</v>
+        <v>-1032.8</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>54183.890396</v>
+        <v>54183.890396000003</v>
       </c>
       <c r="CD23" s="1">
         <v>15.051081</v>
       </c>
       <c r="CE23" s="1">
-        <v>1985.380000</v>
+        <v>1985.38</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1578.620000</v>
+        <v>-1578.62</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>54011.836126</v>
+        <v>54011.836126000002</v>
       </c>
       <c r="B24" s="1">
         <v>15.003288</v>
       </c>
       <c r="C24" s="1">
-        <v>904.065000</v>
+        <v>904.06500000000005</v>
       </c>
       <c r="D24" s="1">
-        <v>-192.547000</v>
+        <v>-192.547</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>54021.921775</v>
+        <v>54021.921775000003</v>
       </c>
       <c r="G24" s="1">
-        <v>15.006089</v>
+        <v>15.006088999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>920.516000</v>
+        <v>920.51599999999996</v>
       </c>
       <c r="I24" s="1">
-        <v>-163.640000</v>
+        <v>-163.63999999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>54032.043139</v>
+        <v>54032.043139000001</v>
       </c>
       <c r="L24" s="1">
         <v>15.008901</v>
       </c>
       <c r="M24" s="1">
-        <v>942.301000</v>
+        <v>942.30100000000004</v>
       </c>
       <c r="N24" s="1">
-        <v>-117.842000</v>
+        <v>-117.842</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>54042.397652</v>
@@ -6180,13 +6596,13 @@
         <v>15.011777</v>
       </c>
       <c r="R24" s="1">
-        <v>948.927000</v>
+        <v>948.92700000000002</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.880000</v>
+        <v>-102.88</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>54052.842374</v>
@@ -6195,435 +6611,435 @@
         <v>15.014678</v>
       </c>
       <c r="W24" s="1">
-        <v>955.413000</v>
+        <v>955.41300000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.486600</v>
+        <v>-89.486599999999996</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>54063.375416</v>
+        <v>54063.375416000003</v>
       </c>
       <c r="AA24" s="1">
         <v>15.017604</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.658000</v>
+        <v>962.65800000000002</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.334600</v>
+        <v>-80.334599999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>54073.826619</v>
+        <v>54073.826618999999</v>
       </c>
       <c r="AF24" s="1">
         <v>15.020507</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.939000</v>
+        <v>967.93899999999996</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.041200</v>
+        <v>-80.041200000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>54084.403805</v>
+        <v>54084.403805000002</v>
       </c>
       <c r="AK24" s="1">
         <v>15.023446</v>
       </c>
       <c r="AL24" s="1">
-        <v>975.761000</v>
+        <v>975.76099999999997</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.005400</v>
+        <v>-88.005399999999995</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>54095.349520</v>
+        <v>54095.349520000003</v>
       </c>
       <c r="AP24" s="1">
         <v>15.026486</v>
       </c>
       <c r="AQ24" s="1">
-        <v>985.028000</v>
+        <v>985.02800000000002</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.123000</v>
+        <v>-103.123</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>54106.071568</v>
+        <v>54106.071567999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>15.029464</v>
+        <v>15.029464000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.528000</v>
+        <v>996.52800000000002</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.888000</v>
+        <v>-124.88800000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>54117.078295</v>
+        <v>54117.078294999999</v>
       </c>
       <c r="AZ24" s="1">
         <v>15.032522</v>
       </c>
       <c r="BA24" s="1">
-        <v>1006.270000</v>
+        <v>1006.27</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.782000</v>
+        <v>-143.78200000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>54128.014083</v>
+        <v>54128.014083000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>15.035559</v>
+        <v>15.035558999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1052.170000</v>
+        <v>1052.17</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.080000</v>
+        <v>-229.08</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>54138.728135</v>
+        <v>54138.728134999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>15.038536</v>
+        <v>15.038536000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1132.560000</v>
+        <v>1132.56</v>
       </c>
       <c r="BL24" s="1">
-        <v>-365.339000</v>
+        <v>-365.339</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>54149.424889</v>
+        <v>54149.424889000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>15.041507</v>
+        <v>15.041506999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1265.000000</v>
+        <v>1265</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-575.226000</v>
+        <v>-575.226</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>54160.085370</v>
+        <v>54160.085370000001</v>
       </c>
       <c r="BT24" s="1">
         <v>15.044468</v>
       </c>
       <c r="BU24" s="1">
-        <v>1413.450000</v>
+        <v>1413.45</v>
       </c>
       <c r="BV24" s="1">
-        <v>-798.963000</v>
+        <v>-798.96299999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>54171.261722</v>
+        <v>54171.261722000003</v>
       </c>
       <c r="BY24" s="1">
         <v>15.047573</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1575.480000</v>
+        <v>1575.48</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1032.710000</v>
+        <v>-1032.71</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>54184.129929</v>
+        <v>54184.129929000002</v>
       </c>
       <c r="CD24" s="1">
         <v>15.051147</v>
       </c>
       <c r="CE24" s="1">
-        <v>1984.150000</v>
+        <v>1984.15</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1577.310000</v>
+        <v>-1577.31</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>54012.177868</v>
+        <v>54012.177867999999</v>
       </c>
       <c r="B25" s="1">
-        <v>15.003383</v>
+        <v>15.003382999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>904.214000</v>
+        <v>904.21400000000006</v>
       </c>
       <c r="D25" s="1">
-        <v>-192.698000</v>
+        <v>-192.69800000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>54022.299244</v>
+        <v>54022.299244000002</v>
       </c>
       <c r="G25" s="1">
-        <v>15.006194</v>
+        <v>15.006194000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>920.644000</v>
+        <v>920.64400000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-163.434000</v>
+        <v>-163.434</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>54032.455811</v>
       </c>
       <c r="L25" s="1">
-        <v>15.009016</v>
+        <v>15.009016000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>942.257000</v>
+        <v>942.25699999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-117.797000</v>
+        <v>-117.797</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>54042.677861</v>
+        <v>54042.677860999996</v>
       </c>
       <c r="Q25" s="1">
-        <v>15.011855</v>
+        <v>15.011855000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>948.965000</v>
+        <v>948.96500000000003</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.899000</v>
+        <v>-102.899</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>54053.131542</v>
+        <v>54053.131542000003</v>
       </c>
       <c r="V25" s="1">
         <v>15.014759</v>
       </c>
       <c r="W25" s="1">
-        <v>955.428000</v>
+        <v>955.428</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.532500</v>
+        <v>-89.532499999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>54063.722153</v>
+        <v>54063.722153000002</v>
       </c>
       <c r="AA25" s="1">
-        <v>15.017701</v>
+        <v>15.017701000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.725000</v>
+        <v>962.72500000000002</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.364800</v>
+        <v>-80.364800000000002</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>54074.170844</v>
       </c>
       <c r="AF25" s="1">
-        <v>15.020603</v>
+        <v>15.020602999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.772000</v>
+        <v>967.77200000000005</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.069000</v>
+        <v>-80.069000000000003</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>54084.753981</v>
+        <v>54084.753981000002</v>
       </c>
       <c r="AK25" s="1">
         <v>15.023543</v>
       </c>
       <c r="AL25" s="1">
-        <v>975.772000</v>
+        <v>975.77200000000005</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.015300</v>
+        <v>-88.015299999999996</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>54096.075661</v>
+        <v>54096.075661000003</v>
       </c>
       <c r="AP25" s="1">
         <v>15.026688</v>
       </c>
       <c r="AQ25" s="1">
-        <v>985.021000</v>
+        <v>985.02099999999996</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.126000</v>
+        <v>-103.126</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>54106.803172</v>
       </c>
       <c r="AU25" s="1">
-        <v>15.029668</v>
+        <v>15.029667999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>996.537000</v>
+        <v>996.53700000000003</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.876000</v>
+        <v>-124.876</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>54117.436369</v>
+        <v>54117.436369000003</v>
       </c>
       <c r="AZ25" s="1">
-        <v>15.032621</v>
+        <v>15.032621000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1006.240000</v>
+        <v>1006.24</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.774000</v>
+        <v>-143.774</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>54128.377620</v>
+        <v>54128.377619999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>15.035660</v>
+        <v>15.03566</v>
       </c>
       <c r="BF25" s="1">
-        <v>1052.170000</v>
+        <v>1052.17</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.094000</v>
+        <v>-229.09399999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>54139.102648</v>
       </c>
       <c r="BJ25" s="1">
-        <v>15.038640</v>
+        <v>15.038639999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1132.580000</v>
+        <v>1132.58</v>
       </c>
       <c r="BL25" s="1">
-        <v>-365.349000</v>
+        <v>-365.34899999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>54150.135622</v>
+        <v>54150.135622000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>15.041704</v>
+        <v>15.041703999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1264.990000</v>
+        <v>1264.99</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-575.242000</v>
+        <v>-575.24199999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>54160.818990</v>
+        <v>54160.81899</v>
       </c>
       <c r="BT25" s="1">
         <v>15.044672</v>
       </c>
       <c r="BU25" s="1">
-        <v>1413.370000</v>
+        <v>1413.37</v>
       </c>
       <c r="BV25" s="1">
-        <v>-798.955000</v>
+        <v>-798.95500000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>54171.387709</v>
+        <v>54171.387709000002</v>
       </c>
       <c r="BY25" s="1">
         <v>15.047608</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1575.450000</v>
+        <v>1575.45</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1032.790000</v>
+        <v>-1032.79</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>54184.663129</v>
@@ -6632,120 +7048,120 @@
         <v>15.051295</v>
       </c>
       <c r="CE25" s="1">
-        <v>1983.740000</v>
+        <v>1983.74</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1579.380000</v>
+        <v>-1579.38</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>54012.605420</v>
+        <v>54012.60542</v>
       </c>
       <c r="B26" s="1">
-        <v>15.003502</v>
+        <v>15.003501999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>904.334000</v>
+        <v>904.33399999999995</v>
       </c>
       <c r="D26" s="1">
-        <v>-192.673000</v>
+        <v>-192.673</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>54022.789774</v>
+        <v>54022.789773999997</v>
       </c>
       <c r="G26" s="1">
-        <v>15.006330</v>
+        <v>15.00633</v>
       </c>
       <c r="H26" s="1">
-        <v>920.563000</v>
+        <v>920.56299999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-163.761000</v>
+        <v>-163.761</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>54032.750929</v>
+        <v>54032.750929000002</v>
       </c>
       <c r="L26" s="1">
-        <v>15.009097</v>
+        <v>15.009097000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>942.391000</v>
+        <v>942.39099999999996</v>
       </c>
       <c r="N26" s="1">
-        <v>-117.964000</v>
+        <v>-117.964</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>54043.015140</v>
+        <v>54043.015140000003</v>
       </c>
       <c r="Q26" s="1">
         <v>15.011949</v>
       </c>
       <c r="R26" s="1">
-        <v>948.951000</v>
+        <v>948.95100000000002</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.949000</v>
+        <v>-102.949</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>54053.476263</v>
+        <v>54053.476262999997</v>
       </c>
       <c r="V26" s="1">
-        <v>15.014855</v>
+        <v>15.014855000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>955.465000</v>
+        <v>955.46500000000003</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.546300</v>
+        <v>-89.546300000000002</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>54064.070809</v>
+        <v>54064.070808999997</v>
       </c>
       <c r="AA26" s="1">
         <v>15.017797</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.788000</v>
+        <v>962.78800000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.388600</v>
+        <v>-80.388599999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>54074.519530</v>
+        <v>54074.519529999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>15.020700</v>
+        <v>15.0207</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.774000</v>
+        <v>967.774</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.038300</v>
+        <v>-80.038300000000007</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>54085.450395</v>
@@ -6754,150 +7170,151 @@
         <v>15.023736</v>
       </c>
       <c r="AL26" s="1">
-        <v>975.746000</v>
+        <v>975.74599999999998</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.975400</v>
+        <v>-87.975399999999993</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>54096.452160</v>
+        <v>54096.452160000001</v>
       </c>
       <c r="AP26" s="1">
         <v>15.026792</v>
       </c>
       <c r="AQ26" s="1">
-        <v>985.037000</v>
+        <v>985.03700000000003</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.132000</v>
+        <v>-103.13200000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>54107.193292</v>
+        <v>54107.193292000004</v>
       </c>
       <c r="AU26" s="1">
         <v>15.029776</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.506000</v>
+        <v>996.50599999999997</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.890000</v>
+        <v>-124.89</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>54117.795999</v>
+        <v>54117.795999000002</v>
       </c>
       <c r="AZ26" s="1">
         <v>15.032721</v>
       </c>
       <c r="BA26" s="1">
-        <v>1006.270000</v>
+        <v>1006.27</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.785000</v>
+        <v>-143.785</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>54129.055154</v>
+        <v>54129.055154000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>15.035849</v>
+        <v>15.035849000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1052.170000</v>
+        <v>1052.17</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.076000</v>
+        <v>-229.07599999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>54139.787092</v>
+        <v>54139.787091999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>15.038830</v>
+        <v>15.038830000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1132.590000</v>
+        <v>1132.5899999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-365.285000</v>
+        <v>-365.28500000000003</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>54150.247222</v>
+        <v>54150.247221999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>15.041735</v>
+        <v>15.041734999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1265.000000</v>
+        <v>1265</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-575.296000</v>
+        <v>-575.29600000000005</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>54160.940512</v>
+        <v>54160.940512000001</v>
       </c>
       <c r="BT26" s="1">
         <v>15.044706</v>
       </c>
       <c r="BU26" s="1">
-        <v>1413.400000</v>
+        <v>1413.4</v>
       </c>
       <c r="BV26" s="1">
-        <v>-798.903000</v>
+        <v>-798.90300000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>54171.810297</v>
+        <v>54171.810297000004</v>
       </c>
       <c r="BY26" s="1">
         <v>15.047725</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1575.460000</v>
+        <v>1575.46</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1032.720000</v>
+        <v>-1032.72</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>54185.203769</v>
       </c>
       <c r="CD26" s="1">
-        <v>15.051445</v>
+        <v>15.051444999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1985.190000</v>
+        <v>1985.19</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1577.610000</v>
+        <v>-1577.61</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>